--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="항목">Sheet1!$E$5:$E$12</definedName>
+    <definedName name="항목">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,7 +55,15 @@
   </si>
   <si>
     <t>국산재료
-사용비율</t>
+사용비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -82,7 +90,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P2063</t>
+    <t>P2603</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,7 +102,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한사랑</t>
+    <t>한사람</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -118,15 +126,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>김유진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>조형준</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김유진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫도그</t>
+    <t xml:space="preserve">핫도그 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -134,7 +142,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>핫도그</t>
+    <t xml:space="preserve">핫도그 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -142,27 +154,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>떡볶이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡볶이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>핫도그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
+    <t xml:space="preserve">핫도그 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그 창업 개수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최대 인테리어 경비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -171,27 +175,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>핫도그 창업 개수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>떡볶이 창업비용(원) 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -199,11 +183,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0000\-00\-00"/>
-    <numFmt numFmtId="182" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0000\-00\-00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -445,7 +428,7 @@
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </diagonal>
     </border>
     <border diagonalUp="1" diagonalDown="1">
@@ -462,7 +445,7 @@
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </diagonal>
     </border>
   </borders>
@@ -471,25 +454,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,9 +468,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -559,43 +527,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,16 +593,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>196452</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -637,8 +611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="153592" y="47624"/>
-          <a:ext cx="4614861" cy="589359"/>
+          <a:off x="104776" y="47625"/>
+          <a:ext cx="4657724" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -646,11 +620,6 @@
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
             <a:prstClr val="black">
@@ -679,7 +648,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
               <a:solidFill>
@@ -698,15 +667,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5952</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>73520</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>178592</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,8 +699,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4929186" y="73520"/>
-          <a:ext cx="1910955" cy="545603"/>
+          <a:off x="4933951" y="114300"/>
+          <a:ext cx="2266950" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,338 +987,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>32</v>
+      <c r="I4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="29">
-        <v>20190115</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="30">
+        <v>20190110</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="35">
         <v>45000000</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="24">
         <v>10000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="27">
         <v>0.95</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
         <v>부천</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="31">
         <v>20190201</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="38">
+      <c r="E6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="36">
         <v>50000000</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="25">
         <v>15000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="28">
         <v>0.8</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="30">
-        <v>20190110</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="38">
+      <c r="B7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="31">
+        <v>20191001</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="36">
         <v>60000000</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="25">
         <v>18000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="28">
         <v>0.88500000000000001</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="31">
         <v>20190115</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>55455500</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="25">
         <v>20000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="28">
         <v>0.755</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="31">
         <v>20190201</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="38">
+      <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="36">
         <v>38500000</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="25">
         <v>8000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="28">
         <v>0.7</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="30">
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="31">
         <v>20190205</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>45500000</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="25">
         <v>12000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="28">
         <v>0.85</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="30">
+      <c r="B11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="31">
         <v>20190117</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="38">
-        <v>62500000</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="36">
+        <v>62550000</v>
+      </c>
+      <c r="G11" s="25">
         <v>19500</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="28">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="32">
         <v>20190201</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="39">
+      <c r="E12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="37">
         <v>40000000</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="26">
         <v>9500</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="29">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12" t="s">
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="38">
+        <f>DCOUNTA(B4:H12,4,E4:E5)</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="40"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="28" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>40</v>
-      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
     </row>
-    <row r="17" spans="12:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="33"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L17" s="34"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L16:L17"/>
+  <mergeCells count="4">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -9,15 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="항목">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,16 +183,53 @@
   <si>
     <t>떡볶이 창업비용(원) 평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 코드</t>
+  </si>
+  <si>
+    <t>떡갈비</t>
+  </si>
+  <si>
+    <t>떡볶이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핫도그 </t>
+  </si>
+  <si>
+    <t>창업비용(원)</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>평균 : 인테리어</t>
+  </si>
+  <si>
+    <t>30000001-45000000</t>
+  </si>
+  <si>
+    <t>45000001-60000000</t>
+  </si>
+  <si>
+    <t>60000001-75000000</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="0000\-00\-00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0000\-00\-00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -454,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,110 +516,153 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -587,6 +673,1005 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>핫도그 및 떡갈비의 창업비용 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>창업비용(원)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55455500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62550000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B348-4F9B-B9F8-81C27AFD3816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>인테리어
+경비</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$8,제1작업!$G$11:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"천""원"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B348-4F9B-B9F8-81C27AFD3816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1325090431"/>
+        <c:axId val="1325097919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1325090431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1325097919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1325097919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1325090431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,6 +1805,300 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45040.346012037036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:I12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="코드" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="창업주" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="창업일" numFmtId="178">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20190110" maxValue="20191001"/>
+    </cacheField>
+    <cacheField name="항목" numFmtId="0">
+      <sharedItems count="3">
+        <s v="핫도그 "/>
+        <s v="떡갈비"/>
+        <s v="떡볶이"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="창업비용(원)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38500000" maxValue="62550000" count="8">
+        <n v="45000000"/>
+        <n v="50000000"/>
+        <n v="60000000"/>
+        <n v="55455500"/>
+        <n v="38500000"/>
+        <n v="45500000"/>
+        <n v="62550000"/>
+        <n v="40000000"/>
+      </sharedItems>
+      <fieldGroup base="4">
+        <rangePr autoStart="0" autoEnd="0" startNum="30000001" endNum="75000000" groupInterval="15000000"/>
+        <groupItems count="5">
+          <s v="&lt;30000001"/>
+          <s v="30000001-45000000"/>
+          <s v="45000001-60000000"/>
+          <s v="60000001-75000000"/>
+          <s v="&gt;75000001"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="인테리어_x000a_경비" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8000" maxValue="20000"/>
+    </cacheField>
+    <cacheField name="국산재료_x000a_사용비용" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.7" maxValue="0.95"/>
+    </cacheField>
+    <cacheField name="지역" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="K2661"/>
+    <s v="한사람"/>
+    <n v="20190110"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="0.95"/>
+    <s v="부천"/>
+  </r>
+  <r>
+    <s v="K3968"/>
+    <s v="홍준표"/>
+    <n v="20190201"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15000"/>
+    <n v="0.8"/>
+    <s v="안양"/>
+  </r>
+  <r>
+    <s v="T1092"/>
+    <s v="한예지"/>
+    <n v="20191001"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="18000"/>
+    <n v="0.88500000000000001"/>
+    <s v="안산"/>
+  </r>
+  <r>
+    <s v="K2154"/>
+    <s v="이소영"/>
+    <n v="20190115"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="20000"/>
+    <n v="0.755"/>
+    <s v="부천"/>
+  </r>
+  <r>
+    <s v="P1514"/>
+    <s v="임용균"/>
+    <n v="20190201"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8000"/>
+    <n v="0.7"/>
+    <s v="안산"/>
+  </r>
+  <r>
+    <s v="P2603"/>
+    <s v="임유나"/>
+    <n v="20190205"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="12000"/>
+    <n v="0.85"/>
+    <s v="부천"/>
+  </r>
+  <r>
+    <s v="T1536"/>
+    <s v="조형준"/>
+    <n v="20190117"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="19500"/>
+    <n v="0.82499999999999996"/>
+    <s v="안산"/>
+  </r>
+  <r>
+    <s v="K3843"/>
+    <s v="김유진"/>
+    <n v="20190201"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="9500"/>
+    <n v="0.92500000000000004"/>
+    <s v="안양"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="178" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="3" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 코드" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 인테리어" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -987,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1007,306 +2386,330 @@
     <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="24">
         <v>20190110</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="29">
         <v>45000000</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>10000</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="21">
         <v>0.95</v>
       </c>
-      <c r="I5" s="17" t="str">
+      <c r="I5" s="11" t="str">
         <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
         <v>부천</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <f>_xlfn.RANK.EQ(H10,$H$5:$H$12)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="25">
         <v>20190201</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="30">
         <v>50000000</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>15000</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="22">
         <v>0.8</v>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f t="shared" ref="J5:J12" si="1">_xlfn.RANK.EQ(H11,$H$5:$H$12)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="25">
         <v>20191001</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="30">
         <v>60000000</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="19">
         <v>18000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>0.88500000000000001</v>
       </c>
-      <c r="I7" s="19" t="str">
+      <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="25">
         <v>20190115</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="30">
         <v>55455500</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>20000</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="22">
         <v>0.755</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="25">
         <v>20190201</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="30">
         <v>38500000</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="19">
         <v>8000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="22">
         <v>0.7</v>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="25">
         <v>20190205</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="30">
         <v>45500000</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="19">
         <v>12000</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <v>0.85</v>
       </c>
-      <c r="I10" s="19" t="str">
+      <c r="I10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="25">
         <v>20190117</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="30">
         <v>62550000</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="19">
         <v>19500</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I11" s="19" t="str">
+      <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="26">
         <v>20190201</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="31">
         <v>40000000</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>9500</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="23">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I12" s="21" t="str">
+      <c r="I12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="38">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32">
         <f>DCOUNTA(B4:H12,4,E4:E5)</f>
         <v>3</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L16" s="34"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L17" s="34"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1325,4 +2728,297 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+      <c r="C3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="39">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41">
+        <v>9750</v>
+      </c>
+      <c r="E5" s="39">
+        <v>1</v>
+      </c>
+      <c r="F5" s="41">
+        <v>8000</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="39">
+        <v>2</v>
+      </c>
+      <c r="H6" s="41">
+        <v>17500</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="39">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41">
+        <v>19500</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="39">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="39">
+        <v>2</v>
+      </c>
+      <c r="F8" s="41">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="39">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41">
+        <v>18166.666666666668</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,14 @@
     <sheet name="제4작업" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="항목">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,20 +63,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>국산재료
-사용비용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K2661</t>
   </si>
   <si>
     <t>K2661</t>
@@ -219,6 +214,22 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>국산재료
+사용비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1514</t>
+  </si>
+  <si>
+    <t>T*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -491,13 +502,135 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -594,9 +724,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,50 +736,339 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#,##0&quot;천&quot;&quot;원&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -723,7 +1139,9 @@
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -755,89 +1173,6 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>창업비용(원)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>한사람</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>홍준표</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>한예지</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>이소영</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>조형준</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>김유진</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>45000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55455500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62550000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B348-4F9B-B9F8-81C27AFD3816}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -931,10 +1266,198 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="1325090431"/>
         <c:axId val="1325097919"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>창업비용(원)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B7C4-41A3-9A81-2E1FF925BCB6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55455500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62550000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B348-4F9B-B9F8-81C27AFD3816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1927027647"/>
+        <c:axId val="1924615343"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1325090431"/>
         <c:scaling>
@@ -950,10 +1473,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -990,6 +1510,7 @@
         <c:axId val="1325097919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -997,24 +1518,24 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;천&quot;&quot;원&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1041,13 +1562,77 @@
         <c:crossAx val="1325090431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1924615343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927027647"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1927027647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1924615343"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1117,6 +1702,7 @@
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1667,7 +2253,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1758,7 +2344,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1811,7 +2397,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1"/>
@@ -1832,6 +2418,82 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47772</cdr:x>
+      <cdr:y>0.10299</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62862</cdr:x>
+      <cdr:y>0.15569</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4442577" y="625305"/>
+          <a:ext cx="1403302" cy="319924"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63038"/>
+            <a:gd name="adj2" fmla="val -8929"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대 창업비용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1982,7 +2644,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -2059,7 +2721,7 @@
     <dataField name="평균 : 인테리어" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2076,7 +2738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -2088,7 +2750,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2099,6 +2761,19 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드" dataDxfId="4"/>
+    <tableColumn id="2" name="항목" dataDxfId="3"/>
+    <tableColumn id="3" name="창업비용(원)" dataDxfId="2"/>
+    <tableColumn id="4" name="인테리어_x000a_경비" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2366,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2375,341 +3050,352 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="24">
-        <v>20190110</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="23">
+        <v>20190115</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="28">
         <v>45000000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>10000</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>0.95</v>
       </c>
-      <c r="I5" s="11" t="str">
+      <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
         <v>부천</v>
       </c>
       <c r="J5" s="2">
-        <f>_xlfn.RANK.EQ(H10,$H$5:$H$12)</f>
-        <v>4</v>
+        <f t="shared" ref="J5:J12" si="1">_xlfn.RANK.EQ(H5,$H$5:$H$12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="24">
         <v>20190201</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="29">
         <v>50000000</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>15000</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>0.8</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J5:J12" si="1">_xlfn.RANK.EQ(H11,$H$5:$H$12)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="25">
-        <v>20191001</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="24">
+        <v>20190110</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="29">
         <v>60000000</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>18000</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>0.88500000000000001</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="24">
         <v>20190115</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="29">
         <v>55455500</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>20000</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>0.755</v>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J8" s="3" t="e">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="24">
         <v>20190201</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="29">
         <v>38500000</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>8000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>0.7</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J9" s="3" t="e">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
         <v>20190205</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="29">
         <v>45500000</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>12000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>0.85</v>
       </c>
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J10" s="3" t="e">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="24">
         <v>20190117</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="29">
         <v>62550000</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>19500</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>0.82499999999999996</v>
       </c>
-      <c r="I11" s="13" t="str">
+      <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J11" s="3" t="e">
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="25">
         <v>20190201</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="31">
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="30">
         <v>40000000</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>9500</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="I12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J12" s="5" t="e">
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="52" t="str">
+        <f>DCOUNTA(B4:H12,4,E4:E5)&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="54">
+        <f>MAX(G5:G12)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="53">
+        <f>SUMIF(항목,"떡볶이",F5:F12)/COUNTIF(항목,"떡볶이")</f>
+        <v>42000000</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32">
-        <f>DCOUNTA(B4:H12,4,E4:E5)</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34" t="s">
+      <c r="H14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4">
+        <f>VLOOKUP(H14,B4:H12,6,0)</f>
+        <v>8000</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L16" s="28"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L17" s="28"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2719,6 +3405,11 @@
     <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$F5&gt;=60000000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -2732,20 +3423,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="23">
+        <v>20190115</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="28">
+        <v>45000000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="24">
+        <v>20190201</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="29">
+        <v>50000000</v>
+      </c>
+      <c r="G4" s="18">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24">
+        <v>20190110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="29">
+        <v>60000000</v>
+      </c>
+      <c r="G5" s="18">
+        <v>18000</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20190115</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="29">
+        <v>55455500</v>
+      </c>
+      <c r="G6" s="18">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="24">
+        <v>20190201</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="29">
+        <v>38500000</v>
+      </c>
+      <c r="G7" s="18">
+        <v>8000</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="24">
+        <v>20190205</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="29">
+        <v>45500000</v>
+      </c>
+      <c r="G8" s="18">
+        <v>12000</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="24">
+        <v>20190117</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="29">
+        <v>62550000</v>
+      </c>
+      <c r="G9" s="18">
+        <v>19500</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="25">
+        <v>20190201</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="30">
+        <v>40000000</v>
+      </c>
+      <c r="G10" s="19">
+        <v>9500</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="56">
+        <v>45000000</v>
+      </c>
+      <c r="E19" s="61">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="58">
+        <v>60000000</v>
+      </c>
+      <c r="E20" s="62">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="58">
+        <v>38500000</v>
+      </c>
+      <c r="E21" s="62">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="58">
+        <v>62550000</v>
+      </c>
+      <c r="E22" s="62">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="68">
+        <v>40000000</v>
+      </c>
+      <c r="E23" s="69">
+        <v>9500</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$F3&gt;=60000000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2773,155 +3790,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="51"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>44</v>
+      <c r="E4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="B5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="35">
         <v>2</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>9750</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="35">
         <v>1</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="37">
         <v>8000</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>48</v>
+      <c r="G5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="39">
+      <c r="B6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="37">
         <v>18000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <v>12000</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <v>2</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="37">
         <v>17500</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="39">
+      <c r="B7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="35">
         <v>1</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="37">
         <v>19500</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="39">
+      <c r="B8" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="35">
         <v>3</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="37">
         <v>12500</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <v>2</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="37">
         <v>10000</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <v>3</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="37">
         <v>18166.666666666668</v>
       </c>
       <c r="I8"/>

--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -15,11 +15,18 @@
     <sheet name="제1작업" sheetId="3" r:id="rId1"/>
     <sheet name="제2작업" sheetId="1" r:id="rId2"/>
     <sheet name="제3작업" sheetId="2" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="항목">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,6 +190,50 @@
     <t>인테리어
 경비</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 코드</t>
+  </si>
+  <si>
+    <t>떡갈비</t>
+  </si>
+  <si>
+    <t>떡볶이</t>
+  </si>
+  <si>
+    <t>핫도그</t>
+  </si>
+  <si>
+    <t>창업비용(원)</t>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>평균 : 인테리어</t>
+  </si>
+  <si>
+    <t>30000001-45000000</t>
+  </si>
+  <si>
+    <t>45000001-60000000</t>
+  </si>
+  <si>
+    <t>60000001-75000000</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -193,7 +244,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0000\-00\-00"/>
     <numFmt numFmtId="177" formatCode="#,##0&quot;천원&quot;"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -233,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -482,13 +533,129 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,125 +665,506 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="#,##0&quot;천원&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -627,6 +1175,1166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>핫도그 및 떡갈비의 창업비용 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>인테리어경비</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$8,제1작업!$G$11:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"천원"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BCB-4DFE-96ED-5DE7E99FB30B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1056867087"/>
+        <c:axId val="1056867503"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>창업비용(원)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1BCB-4DFE-96ED-5DE7E99FB30B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$8,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>한사람</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>홍준표</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>한예지</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>이소영</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>조형준</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김유진</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$8,제1작업!$F$11:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55455500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62550000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BCB-4DFE-96ED-5DE7E99FB30B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1181433743"/>
+        <c:axId val="1181436655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1056867087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056867503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1056867503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0&quot;천원&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056867087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
+        <c:minorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1181436655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181433743"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1181433743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1181436655"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,6 +2461,459 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47315</cdr:x>
+      <cdr:y>0.11297</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61829</cdr:x>
+      <cdr:y>0.181</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4403360" y="687050"/>
+          <a:ext cx="1350676" cy="413790"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 70497"/>
+            <a:gd name="adj2" fmla="val -4942"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대 창업비용</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45042.349602199072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="코드" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="창업주" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="창업일" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20190110" maxValue="20190205"/>
+    </cacheField>
+    <cacheField name="항목" numFmtId="0">
+      <sharedItems count="3">
+        <s v="핫도그"/>
+        <s v="떡갈비"/>
+        <s v="떡볶이"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="창업비용(원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38500000" maxValue="62550000" count="8">
+        <n v="45000000"/>
+        <n v="50000000"/>
+        <n v="60000000"/>
+        <n v="55455500"/>
+        <n v="38500000"/>
+        <n v="45500000"/>
+        <n v="62550000"/>
+        <n v="40000000"/>
+      </sharedItems>
+      <fieldGroup base="4">
+        <rangePr autoStart="0" autoEnd="0" startNum="30000001" endNum="75000000" groupInterval="15000000"/>
+        <groupItems count="5">
+          <s v="&lt;30000001"/>
+          <s v="30000001-45000000"/>
+          <s v="45000001-60000000"/>
+          <s v="60000001-75000000"/>
+          <s v="&gt;75000001"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="인테리어_x000a_경비" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8000" maxValue="20000"/>
+    </cacheField>
+    <cacheField name="국산재료_x000a_사용비율" numFmtId="178">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.7" maxValue="0.95"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="K2661"/>
+    <s v="한사람"/>
+    <n v="20190115"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="0.95"/>
+  </r>
+  <r>
+    <s v="K3968"/>
+    <s v="홍준표"/>
+    <n v="20190201"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15000"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <s v="T1092"/>
+    <s v="한예지"/>
+    <n v="20190110"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="18000"/>
+    <n v="0.88500000000000001"/>
+  </r>
+  <r>
+    <s v="K2154"/>
+    <s v="이소영"/>
+    <n v="20190115"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="20000"/>
+    <n v="0.755"/>
+  </r>
+  <r>
+    <s v="P1514"/>
+    <s v="임용균"/>
+    <n v="20190201"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8000"/>
+    <n v="0.7"/>
+  </r>
+  <r>
+    <s v="P2603"/>
+    <s v="임유나"/>
+    <n v="20190205"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="12000"/>
+    <n v="0.85"/>
+  </r>
+  <r>
+    <s v="T1536"/>
+    <s v="조형준"/>
+    <n v="20190117"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="19500"/>
+    <n v="0.82499999999999996"/>
+  </r>
+  <r>
+    <s v="K3843"/>
+    <s v="김유진"/>
+    <n v="20190201"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="9500"/>
+    <n v="0.92500000000000004"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="창업비용(원)" colHeaderCaption="항목">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="41" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+    <pivotField numFmtId="178" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 코드" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 인테리어" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <formats count="16">
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="22">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="코드" dataDxfId="21"/>
+    <tableColumn id="2" name="항목" dataDxfId="20"/>
+    <tableColumn id="3" name="창업비용(원)" dataDxfId="19"/>
+    <tableColumn id="4" name="인테리어_x000a_경비" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O19"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F11" activeCellId="3" sqref="C4:C8 C11:C12 F4:G8 F11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1041,336 +3202,341 @@
     <row r="2" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>20190115</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>45000000</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>10000</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>0.95</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"안산","부천","안양")</f>
         <v>부천</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" ref="J5:J12" si="1">_xlfn.RANK.EQ(H5,$H$5:$H$12,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>20190201</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>50000000</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>15000</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="26">
         <v>0.8</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>20190110</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>60000000</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>18000</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="26">
         <v>0.88500000000000001</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>20190115</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>55455500</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>20000</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="26">
         <v>0.755</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>20190201</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>38500000</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>8000</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <v>0.7</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>20190205</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>45500000</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <v>12000</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="26">
         <v>0.85</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>부천</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>20190117</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>62550000</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <v>19500</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="26">
         <v>0.82499999999999996</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>안산</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>20190201</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>40000000</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>9500</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>안양</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="40" t="str">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33" t="str">
         <f>DCOUNTA(B4:H12,4,E4:E5)&amp;"개"</f>
         <v>3개</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="33">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="29">
         <f>MAX(G5:G12,1)</f>
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="6">
         <f>SUMIF(항목,"떡볶이",F5:F12)/COUNTIF(항목,"떡볶이")</f>
         <v>42000000</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7">
+        <f>VLOOKUP(H14,B4:H12,6,0)</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="18" spans="12:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="39"/>
-      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
     </row>
     <row r="19" spans="12:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="39"/>
-      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
+    </row>
+    <row r="29" spans="12:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="12:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1380,6 +3546,11 @@
     <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>$F5&gt;=60000000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -1392,38 +3563,619 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16">
+        <v>20190115</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="19">
+        <v>45000000</v>
+      </c>
+      <c r="G3" s="22">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17">
+        <v>20190201</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="20">
+        <v>50000000</v>
+      </c>
+      <c r="G4" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17">
+        <v>20190110</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="20">
+        <v>60000000</v>
+      </c>
+      <c r="G5" s="23">
+        <v>18000</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="17">
+        <v>20190115</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="20">
+        <v>55455500</v>
+      </c>
+      <c r="G6" s="23">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17">
+        <v>20190201</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="20">
+        <v>38500000</v>
+      </c>
+      <c r="G7" s="23">
+        <v>8000</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17">
+        <v>20190205</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20">
+        <v>45500000</v>
+      </c>
+      <c r="G8" s="23">
+        <v>12000</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="17">
+        <v>20190117</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="20">
+        <v>62550000</v>
+      </c>
+      <c r="G9" s="23">
+        <v>19500</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18">
+        <v>20190201</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="21">
+        <v>40000000</v>
+      </c>
+      <c r="G10" s="24">
+        <v>9500</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="45">
+        <v>45000000</v>
+      </c>
+      <c r="E19" s="46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="49">
+        <v>60000000</v>
+      </c>
+      <c r="E20" s="50">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="49">
+        <v>38500000</v>
+      </c>
+      <c r="E21" s="50">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="49">
+        <v>62550000</v>
+      </c>
+      <c r="E22" s="50">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="53">
+        <v>40000000</v>
+      </c>
+      <c r="E23" s="54">
+        <v>9500</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>$F3&gt;=60000000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="55"/>
+      <c r="C3" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="61">
+        <v>2</v>
+      </c>
+      <c r="D5" s="62">
+        <v>9750</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1</v>
+      </c>
+      <c r="F5" s="62">
+        <v>8000</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="61">
+        <v>1</v>
+      </c>
+      <c r="D6" s="62">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1</v>
+      </c>
+      <c r="F6" s="62">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="61">
+        <v>2</v>
+      </c>
+      <c r="H6" s="62">
+        <v>17500</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="61">
+        <v>1</v>
+      </c>
+      <c r="H7" s="62">
+        <v>19500</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="63">
+        <v>3</v>
+      </c>
+      <c r="D8" s="64">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="63">
+        <v>2</v>
+      </c>
+      <c r="F8" s="64">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="63">
+        <v>3</v>
+      </c>
+      <c r="H8" s="64">
+        <v>18166.666666666668</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="소비전력">Sheet1!$G$5:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
+    <definedName name="소비전력">제1작업!$G$5:$G$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,15 +43,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제조사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -67,13 +73,13 @@
   </si>
   <si>
     <t>BK1-021</t>
-  </si>
-  <si>
-    <t>BK1-021</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RA2-019</t>
+  </si>
+  <si>
+    <t>RA2-019</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -89,7 +95,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OE1-082</t>
+    <t>OE1-076</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -101,7 +107,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에이셉카모</t>
+    <t>에이셀카모</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -117,10 +123,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>뉴드림스파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>황토보료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>보이로전기요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올크리니베이직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>전기요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,22 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보이로전기요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올크리니베이직</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴드림스파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보국전자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일월전자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보이로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,20 +195,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전기요 최고 소비전력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째로 큰 가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품코드</t>
+    <t>전기요 최고 소비전력(W)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째로 큰 가격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소비전력
 (W)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기요의 가격 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,8 +229,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
-    <numFmt numFmtId="177" formatCode="0000\-00\-00"/>
+    <numFmt numFmtId="176" formatCode="0000\-00\-00"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -260,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -284,6 +294,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -389,6 +412,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -443,9 +481,11 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </diagonal>
     </border>
     <border diagonalUp="1" diagonalDown="1">
@@ -455,13 +495,28 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -469,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,101 +534,161 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -586,20 +701,1116 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>전기요 및 전기매트 제품 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37583014171011259"/>
+          <c:y val="1.2528882609467001E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>소비전력
+(W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8,제1작업!$C$10:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>에이셀카모</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>보헤미안무자계</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>라디라이트</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>황토보료</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보이로전기요</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>올크리니베이직</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8,제1작업!$G$10:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D4C-4762-957A-E3B4FD8EE215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1350225280"/>
+        <c:axId val="1350225696"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>가격</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8,제1작업!$C$10:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>에이셀카모</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>보헤미안무자계</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>라디라이트</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>황토보료</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보이로전기요</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>올크리니베이직</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$6,제1작업!$F$8,제1작업!$F$10:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"원"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D4C-4762-957A-E3B4FD8EE215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1494696112"/>
+        <c:axId val="1494708592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1350225280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350225696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350225696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350225280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1494708592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1494696112"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1494696112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1494708592"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -608,8 +1819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190499" y="47625"/>
-          <a:ext cx="4619625" cy="695325"/>
+          <a:off x="190500" y="85725"/>
+          <a:ext cx="4667250" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -663,16 +1874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -696,8 +1907,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4924426" y="123824"/>
-          <a:ext cx="2552700" cy="619125"/>
+          <a:off x="5067301" y="180975"/>
+          <a:ext cx="2266950" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,6 +1928,101 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61242</cdr:x>
+      <cdr:y>0.11168</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82299</cdr:x>
+      <cdr:y>0.16303</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5699385" y="679241"/>
+          <a:ext cx="1959652" cy="312295"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63861"/>
+            <a:gd name="adj2" fmla="val 60000"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>밀림방지 기능</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,28 +2288,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>0</v>
@@ -1012,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>5</v>
@@ -1034,304 +2340,283 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="30">
+        <v>83300</v>
+      </c>
+      <c r="G5" s="4">
+        <v>95</v>
+      </c>
+      <c r="H5" s="27">
+        <v>20191023</v>
+      </c>
+      <c r="I5" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G5,소비전력,0)&amp;"위"</f>
+        <v>7위</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="23">
-        <v>83300</v>
-      </c>
-      <c r="G5" s="3">
-        <v>95</v>
-      </c>
-      <c r="H5" s="26">
-        <v>20191023</v>
-      </c>
-      <c r="I5" s="11" t="str">
-        <f>_xlfn.RANK.EQ(G5:G12,소비전력,0)&amp;"위"</f>
-        <v>7위</v>
-      </c>
-      <c r="J5" s="32" t="str">
-        <f>IF(MID(B5,3,1)="1","싱글",IF(MID(B5,3,1)="2","더블","특대형"))</f>
-        <v>싱글</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="F6" s="31">
         <v>151260</v>
       </c>
       <c r="G6" s="2">
         <v>190</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="28">
         <v>20200415</v>
       </c>
-      <c r="I6" s="19" t="str">
-        <f>_xlfn.RANK.EQ(G6:G13,소비전력,0)&amp;"위"</f>
+      <c r="I6" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G6,소비전력,0)&amp;"위"</f>
         <v>3위</v>
       </c>
-      <c r="J6" s="32" t="str">
-        <f t="shared" ref="J6:J12" si="0">IF(MID(B6,3,1)="1","싱글",IF(MID(B6,3,1)="2","더블","특대형"))</f>
-        <v>더블</v>
-      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="D7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="31">
         <v>220760</v>
       </c>
       <c r="G7" s="2">
         <v>350</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <v>20201015</v>
       </c>
-      <c r="I7" s="19" t="str">
-        <f>_xlfn.RANK.EQ(G7:G14,소비전력,0)&amp;"위"</f>
+      <c r="I7" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G7,소비전력,0)&amp;"위"</f>
         <v>1위</v>
       </c>
-      <c r="J7" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>특대형</v>
-      </c>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="24">
+      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="31">
         <v>210000</v>
       </c>
       <c r="G8" s="2">
         <v>75</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="28">
         <v>20200905</v>
       </c>
-      <c r="I8" s="19" t="str">
-        <f>_xlfn.RANK.EQ(G8:G15,소비전력,0)&amp;"위"</f>
+      <c r="I8" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G8,소비전력,0)&amp;"위"</f>
         <v>8위</v>
       </c>
-      <c r="J8" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>싱글</v>
-      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="C9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="31">
         <v>80860</v>
       </c>
       <c r="G9" s="2">
         <v>240</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="28">
         <v>20190903</v>
       </c>
-      <c r="I9" s="19" t="str">
-        <f>_xlfn.RANK.EQ(G9:G16,소비전력,0)&amp;"위"</f>
+      <c r="I9" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G9,소비전력,0)&amp;"위"</f>
         <v>2위</v>
       </c>
-      <c r="J9" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>싱글</v>
-      </c>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="C10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="31">
         <v>139860</v>
       </c>
       <c r="G10" s="2">
         <v>180</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="28">
         <v>20201121</v>
       </c>
-      <c r="I10" s="19" t="str">
-        <f>_xlfn.RANK.EQ(G10:G17,소비전력,0)&amp;"위"</f>
+      <c r="I10" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G10,소비전력,0)&amp;"위"</f>
         <v>4위</v>
       </c>
-      <c r="J10" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>싱글</v>
-      </c>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="C11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="31">
         <v>163800</v>
       </c>
       <c r="G11" s="2">
         <v>120</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <v>20191008</v>
       </c>
-      <c r="I11" s="19" t="str">
-        <f>_xlfn.RANK.EQ(G11:G18,소비전력,0)&amp;"위"</f>
+      <c r="I11" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G11,소비전력,0)&amp;"위"</f>
         <v>6위</v>
       </c>
-      <c r="J11" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>더블</v>
-      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="32">
+        <v>95000</v>
+      </c>
+      <c r="G12" s="7">
+        <v>150</v>
+      </c>
+      <c r="H12" s="29">
+        <v>20200919</v>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f>_xlfn.RANK.EQ(G12,소비전력,0)&amp;"위"</f>
+        <v>5위</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="5">
+        <f>LARGE(F5:F12,2)</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="25">
-        <v>95000</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="7">
+        <f>DMAX(B4:H12,6,D4:D5)</f>
         <v>150</v>
       </c>
-      <c r="H12" s="28">
-        <v>20200919</v>
-      </c>
-      <c r="I12" s="12" t="str">
-        <f>_xlfn.RANK.EQ(G12:G19,소비전력,0)&amp;"위"</f>
-        <v>5위</v>
-      </c>
-      <c r="J12" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>더블</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3">
-        <f>SUMIF(D5:D12,"전기매트",F5:F12)</f>
-        <v>501120</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5" t="e">
-        <f>DMAX(B4:H12,6,"전기요")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="N15" s="29"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="29"/>
+      <c r="J14" s="8">
+        <f>VLOOKUP(H14,B5:H12,6,0)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N16" s="33"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
+    </row>
+    <row r="17" spans="14:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="33"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1341,6 +2626,11 @@
     <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$G5&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>
@@ -1350,4 +2640,598 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="30">
+        <v>71200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>95</v>
+      </c>
+      <c r="H3" s="27">
+        <v>20191023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="31">
+        <v>151260</v>
+      </c>
+      <c r="G4" s="2">
+        <v>190</v>
+      </c>
+      <c r="H4" s="28">
+        <v>20200415</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="31">
+        <v>220760</v>
+      </c>
+      <c r="G5" s="2">
+        <v>350</v>
+      </c>
+      <c r="H5" s="28">
+        <v>20201015</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="31">
+        <v>210000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6" s="28">
+        <v>20200905</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="31">
+        <v>80860</v>
+      </c>
+      <c r="G7" s="2">
+        <v>240</v>
+      </c>
+      <c r="H7" s="28">
+        <v>20190903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="31">
+        <v>139860</v>
+      </c>
+      <c r="G8" s="2">
+        <v>180</v>
+      </c>
+      <c r="H8" s="28">
+        <v>20201121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31">
+        <v>163800</v>
+      </c>
+      <c r="G9" s="2">
+        <v>120</v>
+      </c>
+      <c r="H9" s="28">
+        <v>20191008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="36">
+        <v>95000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>150</v>
+      </c>
+      <c r="H10" s="37">
+        <v>20200919</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40">
+        <f>DAVERAGE(B2:H10,5,D2:D3)</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="31">
+        <v>151260</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="31">
+        <v>220760</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="31">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="31">
+        <v>80860</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$G3&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:H18">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G18&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="30">
+        <v>83300</v>
+      </c>
+      <c r="G3" s="4">
+        <v>95</v>
+      </c>
+      <c r="H3" s="27">
+        <v>20191023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="31">
+        <v>151260</v>
+      </c>
+      <c r="G4" s="2">
+        <v>190</v>
+      </c>
+      <c r="H4" s="28">
+        <v>20200415</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="31">
+        <v>220760</v>
+      </c>
+      <c r="G5" s="2">
+        <v>350</v>
+      </c>
+      <c r="H5" s="28">
+        <v>20201015</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="31">
+        <v>210000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6" s="28">
+        <v>20200905</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="31">
+        <v>80860</v>
+      </c>
+      <c r="G7" s="2">
+        <v>240</v>
+      </c>
+      <c r="H7" s="28">
+        <v>20190903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="31">
+        <v>139860</v>
+      </c>
+      <c r="G8" s="2">
+        <v>180</v>
+      </c>
+      <c r="H8" s="28">
+        <v>20201121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31">
+        <v>163800</v>
+      </c>
+      <c r="G9" s="2">
+        <v>120</v>
+      </c>
+      <c r="H9" s="28">
+        <v>20191008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="32">
+        <v>95000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>150</v>
+      </c>
+      <c r="H10" s="29">
+        <v>20200919</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G3&lt;=150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,13 +73,13 @@
   </si>
   <si>
     <t>BK1-021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA2-019</t>
-  </si>
-  <si>
-    <t>RA2-019</t>
+  </si>
+  <si>
+    <t>BK1-021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA3-019</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -91,14 +91,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>OE1-076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>OE1-082</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OE1-076</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BE2-073</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,7 +107,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>에이셀카모</t>
+    <t>에이셉카모</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>올크리니베이직</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전기요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,6 +159,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>전기요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>보국전자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,6 +183,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>일월전자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>보이로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,6 +204,10 @@
   </si>
   <si>
     <t>두 번째로 큰 가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -212,6 +220,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>RD1-035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,6 +233,14 @@
   </si>
   <si>
     <t>&gt;=200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올크리니베이직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올크리니베이직</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -412,21 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -481,11 +486,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </diagonal>
     </border>
     <border diagonalUp="1" diagonalDown="1">
@@ -495,14 +498,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </diagonal>
     </border>
     <border>
@@ -524,7 +525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,102 +535,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,28 +639,12 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -722,43 +707,31 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>전기요 및 전기매트 제품 현황</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37583014171011259"/>
-          <c:y val="1.2528882609467001E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -767,15 +740,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -785,11 +758,104 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8405027597695479E-2"/>
+          <c:y val="9.603388520156457E-2"/>
+          <c:w val="0.9120423992410378"/>
+          <c:h val="0.77549607058397585"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>가격</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8,제1작업!$C$10:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>에이셉카모</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>보헤미안무자계</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>라디라이트</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>황토보료</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>보이로전기요</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>올크리니베이직</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5:$F$6,제1작업!$F$8,제1작업!$F$10:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"원"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D3C-44AA-8C81-55DDFF17298A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -821,7 +887,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>에이셀카모</c:v>
+                  <c:v>에이셉카모</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>보헤미안무자계</c:v>
@@ -870,7 +936,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D4C-4762-957A-E3B4FD8EE215}"/>
+              <c16:uniqueId val="{00000001-4D3C-44AA-8C81-55DDFF17298A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -883,125 +949,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1350225280"/>
-        <c:axId val="1350225696"/>
+        <c:overlap val="-27"/>
+        <c:axId val="150340575"/>
+        <c:axId val="150339743"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>가격</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8,제1작업!$C$10:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>에이셀카모</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>보헤미안무자계</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>라디라이트</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>황토보료</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>보이로전기요</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>올크리니베이직</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$F$5:$F$6,제1작업!$F$8,제1작업!$F$10:$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0"원"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>83300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>151260</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>210000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>139860</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>163800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D4C-4762-957A-E3B4FD8EE215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1494696112"/>
-        <c:axId val="1494708592"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="1350225280"/>
+        <c:axId val="150340575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,22 +982,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350225696"/>
+        <c:crossAx val="150339743"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,7 +1005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1350225696"/>
+        <c:axId val="150339743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1023,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1086,84 +1039,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350225280"/>
+        <c:crossAx val="150340575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1494708592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1494696112"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1494696112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1494708592"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -1190,15 +1084,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1231,15 +1125,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
-  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1790,7 +1680,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1802,15 +1692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1819,8 +1709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="85725"/>
-          <a:ext cx="4667250" cy="714375"/>
+          <a:off x="266700" y="19050"/>
+          <a:ext cx="4400550" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst/>
@@ -1828,13 +1718,6 @@
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1874,20 +1757,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1907,8 +1790,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5067301" y="180975"/>
-          <a:ext cx="2266950" cy="581025"/>
+          <a:off x="4953001" y="142875"/>
+          <a:ext cx="2247900" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1955,74 +1838,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.61242</cdr:x>
-      <cdr:y>0.11168</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.82299</cdr:x>
-      <cdr:y>0.16303</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5699385" y="679241"/>
-          <a:ext cx="1959652" cy="312295"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -63861"/>
-            <a:gd name="adj2" fmla="val 60000"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US">
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>밀림방지 기능</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR">
-            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2288,335 +2103,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q17"/>
+  <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" activeCellId="5" sqref="C4:C6 C8 C10:C12 F4:G6 F8:G8 F10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+    <row r="1" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="22" t="s">
+    <row r="5" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="31">
         <v>83300</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9">
         <v>95</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>20191023</v>
       </c>
-      <c r="I5" s="22" t="str">
+      <c r="I5" s="18" t="str">
         <f>_xlfn.RANK.EQ(G5,소비전력,0)&amp;"위"</f>
         <v>7위</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+      <c r="J5" s="10" t="e">
+        <f>IF(MID(B5,3,1)="1","싱글"),IF(MID(B5,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <v>151260</v>
       </c>
       <c r="G6" s="2">
         <v>190</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>20200415</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I6" s="20" t="str">
         <f>_xlfn.RANK.EQ(G6,소비전력,0)&amp;"위"</f>
         <v>3위</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
+      <c r="J6" s="10" t="e">
+        <f>IF(MID(B6,3,1)="1","싱글"),IF(MID(B6,3,1)="1","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <v>220760</v>
       </c>
       <c r="G7" s="2">
         <v>350</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>20201015</v>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I7" s="20" t="str">
         <f>_xlfn.RANK.EQ(G7,소비전력,0)&amp;"위"</f>
         <v>1위</v>
       </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+      <c r="J7" s="10" t="e">
+        <f>IF(MID(B7,3,1)="1","싱글"),IF(MID(C17,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="32">
         <v>210000</v>
       </c>
       <c r="G8" s="2">
         <v>75</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>20200905</v>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="20" t="str">
         <f>_xlfn.RANK.EQ(G8,소비전력,0)&amp;"위"</f>
         <v>8위</v>
       </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="J8" s="10" t="e">
+        <f>IF(MID(B8,3,1)="1","싱글"),IF(MID(B8,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <v>80860</v>
       </c>
       <c r="G9" s="2">
         <v>240</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>20190903</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I9" s="20" t="str">
         <f>_xlfn.RANK.EQ(G9,소비전력,0)&amp;"위"</f>
         <v>2위</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="J9" s="10" t="e">
+        <f>IF(MID(B9,3,1)="1","싱글"),IF(MID(B9,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="D10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="32">
         <v>139860</v>
       </c>
       <c r="G10" s="2">
         <v>180</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>20201121</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I10" s="20" t="str">
         <f>_xlfn.RANK.EQ(G10,소비전력,0)&amp;"위"</f>
         <v>4위</v>
       </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="J10" s="10" t="e">
+        <f>IF(MID(B10,3,1)="1","싱글"),IF(MID(B10,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="31">
-        <v>163800</v>
+      <c r="D11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="32">
+        <v>163900</v>
       </c>
       <c r="G11" s="2">
         <v>120</v>
       </c>
-      <c r="H11" s="28">
-        <v>20191008</v>
-      </c>
-      <c r="I11" s="22" t="str">
+      <c r="H11" s="26">
+        <v>20191006</v>
+      </c>
+      <c r="I11" s="20" t="str">
         <f>_xlfn.RANK.EQ(G11,소비전력,0)&amp;"위"</f>
         <v>6위</v>
       </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="J11" s="10" t="e">
+        <f>IF(MID(B11,3,1)="1","싱글"),IF(MID(B11,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="32">
+      <c r="C12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="33">
         <v>95000</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="11">
         <v>150</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>20200919</v>
       </c>
       <c r="I12" s="22" t="str">
         <f>_xlfn.RANK.EQ(G12,소비전력,0)&amp;"위"</f>
         <v>5위</v>
       </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="5">
+      <c r="J12" s="10" t="e">
+        <f>IF(MID(B12,3,1)="1","싱글"),IF(MID(B12,3,1)="2","더블","특대형")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="9">
+        <f>SUMIF(D5:D12,"전기매트",F5:F12)/COUNTIF(D5:D12,"전기매트")</f>
+        <v>167040</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="10">
         <f>LARGE(F5:F12,2)</f>
         <v>210000</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="7">
+    <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11">
         <f>DMAX(B4:H12,6,D4:D5)</f>
         <v>150</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="8">
-        <f>VLOOKUP(H14,B5:H12,6,0)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="N16" s="33"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L16" s="30"/>
+      <c r="M16"/>
+      <c r="N16"/>
       <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="14:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N17" s="33"/>
+    </row>
+    <row r="17" spans="12:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="30"/>
+      <c r="M17"/>
+      <c r="N17"/>
       <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2647,275 +2488,276 @@
   <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="31">
+        <v>71100.000000000015</v>
+      </c>
+      <c r="G3" s="9">
+        <v>95</v>
+      </c>
+      <c r="H3" s="25">
+        <v>20191023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="30">
-        <v>71200</v>
-      </c>
-      <c r="G3" s="4">
-        <v>95</v>
-      </c>
-      <c r="H3" s="27">
-        <v>20191023</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <v>151260</v>
       </c>
       <c r="G4" s="2">
         <v>190</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <v>20200415</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="32">
         <v>220760</v>
       </c>
       <c r="G5" s="2">
         <v>350</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>20201015</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <v>210000</v>
       </c>
       <c r="G6" s="2">
         <v>75</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>20200905</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <v>80860</v>
       </c>
       <c r="G7" s="2">
         <v>240</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>20190903</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="D8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="32">
         <v>139860</v>
       </c>
       <c r="G8" s="2">
         <v>180</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>20201121</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="31">
-        <v>163800</v>
+      <c r="D9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="32">
+        <v>163900</v>
       </c>
       <c r="G9" s="2">
         <v>120</v>
       </c>
-      <c r="H9" s="28">
-        <v>20191008</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="26">
+        <v>20191006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="36">
         <v>95000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>150</v>
       </c>
       <c r="H10" s="37">
         <v>20200919</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2">
         <f>DAVERAGE(B2:H10,5,D2:D3)</f>
         <v>110000</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F18"/>
@@ -2923,58 +2765,58 @@
       <c r="H18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="32">
+        <v>151260</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="31">
-        <v>151260</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="32">
+        <v>220760</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="31">
-        <v>220760</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="32">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="31">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="32">
         <v>80860</v>
       </c>
     </row>
@@ -3002,226 +2844,226 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H10"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="31">
+        <v>83300</v>
+      </c>
+      <c r="G3" s="9">
+        <v>95</v>
+      </c>
+      <c r="H3" s="25">
+        <v>20191023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="30">
-        <v>83300</v>
-      </c>
-      <c r="G3" s="4">
-        <v>95</v>
-      </c>
-      <c r="H3" s="27">
-        <v>20191023</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <v>151260</v>
       </c>
       <c r="G4" s="2">
         <v>190</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <v>20200415</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="32">
         <v>220760</v>
       </c>
       <c r="G5" s="2">
         <v>350</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>20201015</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="32">
         <v>210000</v>
       </c>
       <c r="G6" s="2">
         <v>75</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>20200905</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <v>80860</v>
       </c>
       <c r="G7" s="2">
         <v>240</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>20190903</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="D8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="32">
         <v>139860</v>
       </c>
       <c r="G8" s="2">
         <v>180</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>20201121</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="31">
-        <v>163800</v>
+      <c r="D9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="32">
+        <v>163900</v>
       </c>
       <c r="G9" s="2">
         <v>120</v>
       </c>
-      <c r="H9" s="28">
-        <v>20191008</v>
+      <c r="H9" s="26">
+        <v>20191006</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="32">
+      <c r="C10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="33">
         <v>95000</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="11">
         <v>150</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>20200919</v>
       </c>
     </row>

--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="소비전력">제1작업!$G$5:$G$12</definedName>
+    <definedName name="공연지역">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,214 +33,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
-  <si>
-    <t>제품코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비전력
-(W)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BK1-021</t>
-  </si>
-  <si>
-    <t>BK1-021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA3-019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL3-099</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RD1-035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OE1-076</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OE1-082</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE2-073</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HE2-052</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이셉카모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보헤미안무자계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>황토온돌마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라디라이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴드림스파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>황토보료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보이로전기요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온수매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온수매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기매트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보국전자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리앤데코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한일의료기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라디언스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일월전자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일월전자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보이로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한일전기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기매트 가격 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요 최고 소비전력(W)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째로 큰 가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비전력
-(W)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기요의 가격 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RD1-035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올크리니베이직</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>올크리니베이직</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+  <si>
+    <t>관리번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연시간
+(분)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람료
+(단위:원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3502</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1502</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레베카</t>
+  </si>
+  <si>
+    <t>레베카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정글북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드웨이 42번가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종욱 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로카봇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사의찬미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나폴레옹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캣츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람료(단위:원)의 전체 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주지역의 공연 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 예매 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=800</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -249,8 +185,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0000\-00\-00"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="###0&quot;매&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -290,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -320,7 +256,211 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -333,190 +473,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -525,126 +485,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -707,31 +699,36 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>전기요 및 전기매트 제품 현황</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>서울 및 부산지역 예매 현황</a:t>
             </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -740,15 +737,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -763,10 +760,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8405027597695479E-2"/>
-          <c:y val="9.603388520156457E-2"/>
-          <c:w val="0.9120423992410378"/>
-          <c:h val="0.77549607058397585"/>
+          <c:x val="7.877724484663394E-2"/>
+          <c:y val="0.11275994348520302"/>
+          <c:w val="0.90621156875708986"/>
+          <c:h val="0.77683297799208051"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -778,11 +775,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
+              <c:f>제1작업!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>가격</c:v>
+                  <c:v>관람료
+(단위:원)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -799,60 +797,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>에이셉카모</c:v>
+                  <c:v>레베카</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>보헤미안무자계</c:v>
+                  <c:v>브로드웨이 42번가</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>라디라이트</c:v>
+                  <c:v>김종욱 찾기</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>황토보료</c:v>
+                  <c:v>헬로카봇</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>보이로전기요</c:v>
+                  <c:v>나폴레옹</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>올크리니베이직</c:v>
+                  <c:v>캣츠</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$F$5:$F$6,제1작업!$F$8,제1작업!$F$10:$F$12)</c:f>
+              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$9,제1작업!$G$11:$G$12)</c:f>
               <c:numCache>
-                <c:formatCode>#,##0"원"</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>83300</c:v>
+                  <c:v>50400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151260</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139860</c:v>
+                  <c:v>31000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163900</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D3C-44AA-8C81-55DDFF17298A}"/>
+              <c16:uniqueId val="{00000000-1752-4B7E-92DE-172F4255702E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -861,12 +859,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>제1작업!$G$4</c:f>
+              <c:f>제1작업!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>소비전력
-(W)</c:v>
+                  <c:v>예매수량</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -883,60 +880,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>에이셉카모</c:v>
+                  <c:v>레베카</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>보헤미안무자계</c:v>
+                  <c:v>브로드웨이 42번가</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>라디라이트</c:v>
+                  <c:v>김종욱 찾기</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>황토보료</c:v>
+                  <c:v>헬로카봇</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>보이로전기요</c:v>
+                  <c:v>나폴레옹</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>올크리니베이직</c:v>
+                  <c:v>캣츠</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8,제1작업!$G$10:$G$12)</c:f>
+              <c:f>(제1작업!$H$5,제1작업!$H$7:$H$9,제1작업!$H$11:$H$12)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>###0"매"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>4465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D3C-44AA-8C81-55DDFF17298A}"/>
+              <c16:uniqueId val="{00000001-1752-4B7E-92DE-172F4255702E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -950,11 +947,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="150340575"/>
-        <c:axId val="150339743"/>
+        <c:axId val="1412295983"/>
+        <c:axId val="1412291823"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150340575"/>
+        <c:axId val="1412295983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,22 +979,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150339743"/>
+        <c:crossAx val="1412291823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150339743"/>
+        <c:axId val="1412291823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1020,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1039,22 +1036,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150340575"/>
+        <c:crossAx val="1412295983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,15 +1081,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1125,7 +1122,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -1680,7 +1680,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1692,32 +1692,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="양쪽 모서리가 잘린 사각형 1"/>
+        <xdr:cNvPr id="2" name="한쪽 모서리가 잘린 사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="19050"/>
-          <a:ext cx="4400550" cy="771525"/>
+          <a:off x="209550" y="57151"/>
+          <a:ext cx="4448175" cy="742950"/>
         </a:xfrm>
-        <a:prstGeom prst="snip2SameRect">
+        <a:prstGeom prst="snip1Rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1748,7 +1755,7 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>계절가전 히트상품 정보</a:t>
+            <a:t>온라인 뮤지컬 예매 현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1758,19 +1765,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
+      <xdr:colOff>390526</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
+      <xdr:colOff>809626</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1790,8 +1797,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4953001" y="142875"/>
-          <a:ext cx="2247900" cy="647700"/>
+          <a:off x="4819651" y="85725"/>
+          <a:ext cx="2476500" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,6 +1845,19 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="공연명"/>
+    <tableColumn id="2" name="공연일"/>
+    <tableColumn id="3" name="관람료_x000a_(단위:원)"/>
+    <tableColumn id="4" name="예매수량"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,378 +2123,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" activeCellId="5" sqref="C4:C6 C8 C10:C12 F4:G6 F8:G8 F10:G12"/>
+      <selection activeCell="G11" activeCellId="5" sqref="C4:C5 C7:C9 C11:C12 G4:H5 G7:H9 G11:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="27">
+        <v>44359</v>
+      </c>
+      <c r="F5" s="5">
+        <v>170</v>
+      </c>
+      <c r="G5" s="15">
+        <v>50400</v>
+      </c>
+      <c r="H5" s="23">
+        <v>519</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f t="shared" ref="I5:I12" si="0">CHOOSE(RIGHT(B5:B12),"3세이상","7세이상","13세이상")</f>
+        <v>7세이상</v>
+      </c>
+      <c r="J5" s="6">
+        <f>MONTH(E5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="28">
+        <v>44347</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="16">
+        <v>16900</v>
+      </c>
+      <c r="H6" s="24">
+        <v>800</v>
+      </c>
+      <c r="I6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>3세이상</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:J12" si="1">MONTH(E6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="28">
+        <v>44313</v>
+      </c>
+      <c r="F7" s="2">
+        <v>150</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50000</v>
+      </c>
+      <c r="H7" s="24">
+        <v>780</v>
+      </c>
+      <c r="I7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>7세이상</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28">
+        <v>44270</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="16">
+        <v>70000</v>
+      </c>
+      <c r="H8" s="24">
+        <v>955</v>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>7세이상</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="28">
+        <v>44368</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
+      <c r="G9" s="16">
+        <v>31000</v>
+      </c>
+      <c r="H9" s="24">
+        <v>750</v>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>3세이상</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="28">
+        <v>44345</v>
+      </c>
+      <c r="F10" s="2">
+        <v>170</v>
+      </c>
+      <c r="G10" s="16">
+        <v>64000</v>
+      </c>
+      <c r="H10" s="24">
+        <v>690</v>
+      </c>
+      <c r="I10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>13세이상</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="28">
+        <v>44277</v>
+      </c>
+      <c r="F11" s="2">
+        <v>150</v>
+      </c>
+      <c r="G11" s="16">
+        <v>40000</v>
+      </c>
+      <c r="H11" s="24">
+        <v>4465</v>
+      </c>
+      <c r="I11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>7세이상</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="29">
+        <v>44326</v>
+      </c>
+      <c r="F12" s="8">
+        <v>160</v>
+      </c>
+      <c r="G12" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H12" s="25">
+        <v>819</v>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>7세이상</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="36">
+        <f>AVERAGE(G5:G12)</f>
+        <v>45287.5</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="31">
+        <f>MAX(H5:H12)</f>
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="31">
-        <v>83300</v>
-      </c>
-      <c r="G5" s="9">
-        <v>95</v>
-      </c>
-      <c r="H5" s="25">
-        <v>20191023</v>
-      </c>
-      <c r="I5" s="18" t="str">
-        <f>_xlfn.RANK.EQ(G5,소비전력,0)&amp;"위"</f>
-        <v>7위</v>
-      </c>
-      <c r="J5" s="10" t="e">
-        <f>IF(MID(B5,3,1)="1","싱글"),IF(MID(B5,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="32">
-        <v>151260</v>
-      </c>
-      <c r="G6" s="2">
-        <v>190</v>
-      </c>
-      <c r="H6" s="26">
-        <v>20200415</v>
-      </c>
-      <c r="I6" s="20" t="str">
-        <f>_xlfn.RANK.EQ(G6,소비전력,0)&amp;"위"</f>
-        <v>3위</v>
-      </c>
-      <c r="J6" s="10" t="e">
-        <f>IF(MID(B6,3,1)="1","싱글"),IF(MID(B6,3,1)="1","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="32">
-        <v>220760</v>
-      </c>
-      <c r="G7" s="2">
-        <v>350</v>
-      </c>
-      <c r="H7" s="26">
-        <v>20201015</v>
-      </c>
-      <c r="I7" s="20" t="str">
-        <f>_xlfn.RANK.EQ(G7,소비전력,0)&amp;"위"</f>
-        <v>1위</v>
-      </c>
-      <c r="J7" s="10" t="e">
-        <f>IF(MID(B7,3,1)="1","싱글"),IF(MID(C17,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="32">
-        <v>210000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" s="26">
-        <v>20200905</v>
-      </c>
-      <c r="I8" s="20" t="str">
-        <f>_xlfn.RANK.EQ(G8,소비전력,0)&amp;"위"</f>
-        <v>8위</v>
-      </c>
-      <c r="J8" s="10" t="e">
-        <f>IF(MID(B8,3,1)="1","싱글"),IF(MID(B8,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="32">
-        <v>80860</v>
-      </c>
-      <c r="G9" s="2">
-        <v>240</v>
-      </c>
-      <c r="H9" s="26">
-        <v>20190903</v>
-      </c>
-      <c r="I9" s="20" t="str">
-        <f>_xlfn.RANK.EQ(G9,소비전력,0)&amp;"위"</f>
-        <v>2위</v>
-      </c>
-      <c r="J9" s="10" t="e">
-        <f>IF(MID(B9,3,1)="1","싱글"),IF(MID(B9,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="32">
-        <v>139860</v>
-      </c>
-      <c r="G10" s="2">
-        <v>180</v>
-      </c>
-      <c r="H10" s="26">
-        <v>20201121</v>
-      </c>
-      <c r="I10" s="20" t="str">
-        <f>_xlfn.RANK.EQ(G10,소비전력,0)&amp;"위"</f>
-        <v>4위</v>
-      </c>
-      <c r="J10" s="10" t="e">
-        <f>IF(MID(B10,3,1)="1","싱글"),IF(MID(B10,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="32">
-        <v>163900</v>
-      </c>
-      <c r="G11" s="2">
-        <v>120</v>
-      </c>
-      <c r="H11" s="26">
-        <v>20191006</v>
-      </c>
-      <c r="I11" s="20" t="str">
-        <f>_xlfn.RANK.EQ(G11,소비전력,0)&amp;"위"</f>
-        <v>6위</v>
-      </c>
-      <c r="J11" s="10" t="e">
-        <f>IF(MID(B11,3,1)="1","싱글"),IF(MID(B11,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8">
+        <f>COUNTIF(공연지역,"전주")</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="33">
-        <v>95000</v>
-      </c>
-      <c r="G12" s="11">
-        <v>150</v>
-      </c>
-      <c r="H12" s="27">
-        <v>20200919</v>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f>_xlfn.RANK.EQ(G12,소비전력,0)&amp;"위"</f>
-        <v>5위</v>
-      </c>
-      <c r="J12" s="10" t="e">
-        <f>IF(MID(B12,3,1)="1","싱글"),IF(MID(B12,3,1)="2","더블","특대형")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="9">
-        <f>SUMIF(D5:D12,"전기매트",F5:F12)/COUNTIF(D5:D12,"전기매트")</f>
-        <v>167040</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="10">
-        <f>LARGE(F5:F12,2)</f>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="11">
-        <f>DMAX(B4:H12,6,D4:D5)</f>
-        <v>150</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="16" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="L16" s="30"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="12:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="30"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="I14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="9">
+        <f>VLOOKUP(H14,B4:H12,7,1)</f>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="11:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$G5&lt;=150</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$F5&lt;=100</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>$B$5:$B$12</formula1>
+      <formula1>$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2485,593 +2499,577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="27">
+        <v>44359</v>
+      </c>
+      <c r="F3" s="5">
+        <v>170</v>
+      </c>
+      <c r="G3" s="15">
+        <v>50400</v>
+      </c>
+      <c r="H3" s="23">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="28">
+        <v>44347</v>
+      </c>
+      <c r="F4" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" s="16">
+        <v>16900</v>
+      </c>
+      <c r="H4" s="24">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="28">
+        <v>44313</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150</v>
+      </c>
+      <c r="G5" s="16">
+        <v>50000</v>
+      </c>
+      <c r="H5" s="24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="28">
+        <v>44270</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="16">
+        <v>70000</v>
+      </c>
+      <c r="H6" s="24">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="28">
+        <v>44368</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="16">
+        <v>31000</v>
+      </c>
+      <c r="H7" s="24">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="28">
+        <v>44345</v>
+      </c>
+      <c r="F8" s="2">
+        <v>170</v>
+      </c>
+      <c r="G8" s="16">
+        <v>64000</v>
+      </c>
+      <c r="H8" s="24">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="28">
+        <v>44277</v>
+      </c>
+      <c r="F9" s="2">
+        <v>150</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="24">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="31">
-        <v>71100.000000000015</v>
-      </c>
-      <c r="G3" s="9">
-        <v>95</v>
-      </c>
-      <c r="H3" s="25">
-        <v>20191023</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="29">
+        <v>44326</v>
+      </c>
+      <c r="F10" s="8">
+        <v>160</v>
+      </c>
+      <c r="G10" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H10" s="25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="32">
-        <v>151260</v>
-      </c>
-      <c r="G4" s="2">
-        <v>190</v>
-      </c>
-      <c r="H4" s="26">
-        <v>20200415</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="32">
-        <v>220760</v>
-      </c>
-      <c r="G5" s="2">
-        <v>350</v>
-      </c>
-      <c r="H5" s="26">
-        <v>20201015</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="C19">
+        <v>44347</v>
+      </c>
+      <c r="D19">
+        <v>16900</v>
+      </c>
+      <c r="E19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="32">
-        <v>210000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" s="26">
-        <v>20200905</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="32">
-        <v>80860</v>
-      </c>
-      <c r="G7" s="2">
-        <v>240</v>
-      </c>
-      <c r="H7" s="26">
-        <v>20190903</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="C20">
+        <v>44270</v>
+      </c>
+      <c r="D20">
+        <v>70000</v>
+      </c>
+      <c r="E20">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="32">
-        <v>139860</v>
-      </c>
-      <c r="G8" s="2">
-        <v>180</v>
-      </c>
-      <c r="H8" s="26">
-        <v>20201121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="C21">
+        <v>44345</v>
+      </c>
+      <c r="D21">
+        <v>64000</v>
+      </c>
+      <c r="E21">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="32">
-        <v>163900</v>
-      </c>
-      <c r="G9" s="2">
-        <v>120</v>
-      </c>
-      <c r="H9" s="26">
-        <v>20191006</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="36">
-        <v>95000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>150</v>
-      </c>
-      <c r="H10" s="37">
-        <v>20200919</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2">
-        <f>DAVERAGE(B2:H10,5,D2:D3)</f>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="32">
-        <v>151260</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="32">
-        <v>220760</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="32">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="32">
-        <v>80860</v>
+      <c r="C22">
+        <v>44277</v>
+      </c>
+      <c r="D22">
+        <v>40000</v>
+      </c>
+      <c r="E22">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>44326</v>
+      </c>
+      <c r="D23">
+        <v>40000</v>
+      </c>
+      <c r="E23">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:G11"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$G3&lt;=150</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:H18">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$G18&lt;=150</formula>
+      <formula>$F3&lt;=100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="27">
+        <v>44359</v>
+      </c>
+      <c r="F3" s="5">
+        <v>170</v>
+      </c>
+      <c r="G3" s="15">
+        <v>50400</v>
+      </c>
+      <c r="H3" s="23">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="28">
+        <v>44347</v>
+      </c>
+      <c r="F4" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" s="16">
+        <v>16900</v>
+      </c>
+      <c r="H4" s="24">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="28">
+        <v>44313</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150</v>
+      </c>
+      <c r="G5" s="16">
+        <v>50000</v>
+      </c>
+      <c r="H5" s="24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="28">
+        <v>44270</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="16">
+        <v>70000</v>
+      </c>
+      <c r="H6" s="24">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="28">
+        <v>44368</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+      <c r="G7" s="16">
+        <v>31000</v>
+      </c>
+      <c r="H7" s="24">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="28">
+        <v>44345</v>
+      </c>
+      <c r="F8" s="2">
+        <v>170</v>
+      </c>
+      <c r="G8" s="16">
+        <v>64000</v>
+      </c>
+      <c r="H8" s="24">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="28">
+        <v>44277</v>
+      </c>
+      <c r="F9" s="2">
+        <v>150</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="24">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="31">
-        <v>83300</v>
-      </c>
-      <c r="G3" s="9">
-        <v>95</v>
-      </c>
-      <c r="H3" s="25">
-        <v>20191023</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="32">
-        <v>151260</v>
-      </c>
-      <c r="G4" s="2">
-        <v>190</v>
-      </c>
-      <c r="H4" s="26">
-        <v>20200415</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="32">
-        <v>220760</v>
-      </c>
-      <c r="G5" s="2">
-        <v>350</v>
-      </c>
-      <c r="H5" s="26">
-        <v>20201015</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="32">
-        <v>210000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" s="26">
-        <v>20200905</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="32">
-        <v>80860</v>
-      </c>
-      <c r="G7" s="2">
-        <v>240</v>
-      </c>
-      <c r="H7" s="26">
-        <v>20190903</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="32">
-        <v>139860</v>
-      </c>
-      <c r="G8" s="2">
-        <v>180</v>
-      </c>
-      <c r="H8" s="26">
-        <v>20201121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="32">
-        <v>163900</v>
-      </c>
-      <c r="G9" s="2">
-        <v>120</v>
-      </c>
-      <c r="H9" s="26">
-        <v>20191006</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="33">
-        <v>95000</v>
-      </c>
-      <c r="G10" s="11">
-        <v>150</v>
-      </c>
-      <c r="H10" s="27">
-        <v>20200919</v>
+      <c r="E10" s="29">
+        <v>44326</v>
+      </c>
+      <c r="F10" s="8">
+        <v>160</v>
+      </c>
+      <c r="G10" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H10" s="25">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G3&lt;=150</formula>
+      <formula>$F3&lt;=100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="공연지역">제1작업!$D$5:$D$12</definedName>
+    <definedName name="작업일">제1작업!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,151 +36,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>관리번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연지역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연시간
-(분)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관람료
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업일</t>
+  </si>
+  <si>
+    <t>작업일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용
 (단위:원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관람등급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0601</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G6402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3502</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3601</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5403</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1502</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레베카</t>
-  </si>
-  <si>
-    <t>레베카</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정글북</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로드웨이 42번가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김종욱 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헬로카봇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사의찬미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나폴레옹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캣츠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관람료(단위:원)의 전체 평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전주지역의 공연 개수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 예매 수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>J*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업
+요일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S01-1</t>
+  </si>
+  <si>
+    <t>S01-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H02-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H03-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임동진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인돌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이철수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나영희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박달재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한우주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고봉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수크리닝</t>
+  </si>
+  <si>
+    <t>특수크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테리어청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산실청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄눈시공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물외벽청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥왁스작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈크리닝 비용(단위:원) 합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝 작업 개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 빠른 작업일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H01-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=400000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 고객명</t>
+  </si>
+  <si>
+    <t>2022-04-01 - 2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-04-11 - 2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-21 - 2022-04-30</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>평균 : 비용(단위:원)</t>
   </si>
 </sst>
 </file>
@@ -186,9 +269,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="###0&quot;매&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot;명&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +279,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HyhwpEQ"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -250,14 +340,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -269,133 +511,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -411,73 +535,8 @@
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -485,156 +544,265 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -699,7 +867,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -712,10 +880,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
-              <a:t>서울 및 부산지역 예매 현황</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>홈</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" sz="2000"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>사무크리닝 사업현황 분석</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -737,7 +913,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -755,118 +931,16 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.877724484663394E-2"/>
-          <c:y val="0.11275994348520302"/>
-          <c:w val="0.90621156875708986"/>
-          <c:h val="0.77683297799208051"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>관람료
-(단위:원)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>레베카</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>브로드웨이 42번가</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>김종욱 찾기</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>헬로카봇</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>나폴레옹</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>캣츠</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$9,제1작업!$G$11:$G$12)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>50400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1752-4B7E-92DE-172F4255702E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>예매수량</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>비용(단위:원)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -878,62 +952,137 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-6A9D-497B-B146-C1734DC8799F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:f>(제1작업!$E$5:$E$6,제1작업!$E$8:$E$10,제1작업!$E$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>레베카</c:v>
+                  <c:v>입주청소</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>브로드웨이 42번가</c:v>
+                  <c:v>인테리어청소</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>김종욱 찾기</c:v>
+                  <c:v>계단청소</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>헬로카봇</c:v>
+                  <c:v>에어컨청소</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>나폴레옹</c:v>
+                  <c:v>줄눈시공</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>캣츠</c:v>
+                  <c:v>바닥왁스작업</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$H$5,제1작업!$H$7:$H$9,제1작업!$H$11:$H$12)</c:f>
+              <c:f>(제1작업!$H$5:$H$6,제1작업!$H$8:$H$10,제1작업!$H$12)</c:f>
               <c:numCache>
-                <c:formatCode>###0"매"</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>519</c:v>
+                  <c:v>450000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>780</c:v>
+                  <c:v>520000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>955</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4465</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>819</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1752-4B7E-92DE-172F4255702E}"/>
+              <c16:uniqueId val="{00000001-6A9D-497B-B146-C1734DC8799F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -945,13 +1094,126 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1412295983"/>
-        <c:axId val="1412291823"/>
+        <c:gapWidth val="75"/>
+        <c:axId val="1248775375"/>
+        <c:axId val="1248775791"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>파견인원</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$E$5:$E$6,제1작업!$E$8:$E$10,제1작업!$E$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>입주청소</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>인테리어청소</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>계단청소</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>에어컨청소</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>줄눈시공</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>바닥왁스작업</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8:$G$10,제1작업!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"명"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A9D-497B-B146-C1734DC8799F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1259079823"/>
+        <c:axId val="1259078991"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1412295983"/>
+        <c:axId val="1248775375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +1241,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -994,7 +1256,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412291823"/>
+        <c:crossAx val="1248775791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1412291823"/>
+        <c:axId val="1248775791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1298,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1051,10 +1313,70 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412295983"/>
+        <c:crossAx val="1248775375"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1259078991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0&quot;명&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1259079823"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1259079823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1259078991"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -1081,7 +1403,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1122,7 +1444,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100">
+        <a:defRPr>
           <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
         </a:defRPr>
@@ -1130,6 +1452,7 @@
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1692,27 +2015,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="한쪽 모서리가 잘린 사각형 1"/>
+        <xdr:cNvPr id="2" name="십자형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="57151"/>
-          <a:ext cx="4448175" cy="742950"/>
+          <a:off x="200025" y="66675"/>
+          <a:ext cx="4857750" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="snip1Rect">
+        <a:prstGeom prst="plus">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -1743,7 +2066,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1755,7 +2078,27 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>온라인 뮤지컬 예매 현황</a:t>
+            <a:t>우드크리닝 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>월 작업 현황 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1764,16 +2107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>809626</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1797,8 +2140,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4819651" y="85725"/>
-          <a:ext cx="2476500" cy="666750"/>
+          <a:off x="5248275" y="352425"/>
+          <a:ext cx="2352675" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1847,14 +2190,375 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69463</cdr:x>
+      <cdr:y>0.2439</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82802</cdr:x>
+      <cdr:y>0.30424</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6464507" y="1483400"/>
+          <a:ext cx="1241373" cy="366946"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53661"/>
+            <a:gd name="adj2" fmla="val 101733"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최다 작업</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45049.353838541669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="관리번호" numFmtId="0">
+      <sharedItems count="8">
+        <s v="H01-1"/>
+        <s v="F01-2"/>
+        <s v="S01-1"/>
+        <s v="F02-1"/>
+        <s v="H02-2"/>
+        <s v="H03-1"/>
+        <s v="S02-2"/>
+        <s v="F03-1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="고객명" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="구분" numFmtId="0">
+      <sharedItems count="3">
+        <s v="홈크리닝"/>
+        <s v="사무실크리닝"/>
+        <s v="특수크리닝"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="작업" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="작업일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-04-09T00:00:00" maxDate="2022-04-30T00:00:00" count="7">
+        <d v="2022-04-11T00:00:00"/>
+        <d v="2022-04-27T00:00:00"/>
+        <d v="2022-04-23T00:00:00"/>
+        <d v="2022-04-14T00:00:00"/>
+        <d v="2022-04-19T00:00:00"/>
+        <d v="2022-04-09T00:00:00"/>
+        <d v="2022-04-29T00:00:00"/>
+      </sharedItems>
+      <fieldGroup base="4">
+        <rangePr autoStart="0" autoEnd="0" groupBy="days" startDate="2022-04-01T00:00:00" endDate="2022-04-30T00:00:00" groupInterval="10"/>
+        <groupItems count="5">
+          <s v="&lt;2022-04-01"/>
+          <s v="2022-04-01 - 2022-04-10"/>
+          <s v="2022-04-11 - 2022-04-20"/>
+          <s v="2022-04-21 - 2022-04-30"/>
+          <s v="&gt;2022-04-30"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="파견인원" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="비용_x000a_(단위:원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="150000" maxValue="1250000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <s v="임동진"/>
+    <x v="0"/>
+    <s v="입주청소"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="450000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="고인돌"/>
+    <x v="1"/>
+    <s v="인테리어청소"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="520000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="김나래"/>
+    <x v="2"/>
+    <s v="전산실청소"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="1030000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="이철수"/>
+    <x v="1"/>
+    <s v="계단청소"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="330000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="나영희"/>
+    <x v="0"/>
+    <s v="에어컨청소"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="150000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="박달재"/>
+    <x v="0"/>
+    <s v="줄눈시공"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="240000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="한우주"/>
+    <x v="2"/>
+    <s v="건물외벽청소"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="1250000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="최고봉"/>
+    <x v="1"/>
+    <s v="바닥왁스작업"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="400000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="8" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="작업일" colHeaderCaption="구분">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 고객명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 비용(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="1"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="6">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0">
-  <autoFilter ref="B18:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="B18:E21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="공연명"/>
-    <tableColumn id="2" name="공연일"/>
-    <tableColumn id="3" name="관람료_x000a_(단위:원)"/>
-    <tableColumn id="4" name="예매수량"/>
+    <tableColumn id="1" name="관리번호" dataDxfId="12"/>
+    <tableColumn id="2" name="고객명" dataDxfId="11"/>
+    <tableColumn id="3" name="작업" dataDxfId="10"/>
+    <tableColumn id="4" name="작업일" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2123,355 +2827,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" activeCellId="5" sqref="C4:C5 C7:C9 C11:C12 G4:H5 G7:H9 G11:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+    <row r="1" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44662</v>
+      </c>
+      <c r="G5" s="28">
+        <v>3</v>
+      </c>
+      <c r="H5" s="31">
+        <v>450000</v>
+      </c>
+      <c r="I5" s="15" t="str">
+        <f t="shared" ref="I5:I12" si="0">IF(RIGHT(B5:B12)="1","서울","경기/인천")</f>
+        <v>서울</v>
+      </c>
+      <c r="J5" s="36" t="str">
+        <f>CHOOSE(WEEKDAY(F5),"일요일","월요일","화요일","수요일","목요일","금요일","토요일")</f>
+        <v>월요일</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44678</v>
+      </c>
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="H6" s="32">
+        <v>520000</v>
+      </c>
+      <c r="I6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>경기/인천</v>
+      </c>
+      <c r="J6" s="36" t="str">
+        <f t="shared" ref="J6:J12" si="1">CHOOSE(WEEKDAY(F6),"일요일","월요일","화요일","수요일","목요일","금요일","토요일")</f>
+        <v>수요일</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44674</v>
+      </c>
+      <c r="G7" s="29">
+        <v>5</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1030000</v>
+      </c>
+      <c r="I7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>서울</v>
+      </c>
+      <c r="J7" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>토요일</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44665</v>
+      </c>
+      <c r="G8" s="29">
+        <v>4</v>
+      </c>
+      <c r="H8" s="32">
+        <v>330000</v>
+      </c>
+      <c r="I8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>서울</v>
+      </c>
+      <c r="J8" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>목요일</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44670</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32">
+        <v>150000</v>
+      </c>
+      <c r="I9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>경기/인천</v>
+      </c>
+      <c r="J9" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>화요일</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44660</v>
+      </c>
+      <c r="G10" s="29">
         <v>3</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="H10" s="32">
+        <v>240000</v>
+      </c>
+      <c r="I10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>서울</v>
+      </c>
+      <c r="J10" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>토요일</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44674</v>
+      </c>
+      <c r="G11" s="29">
         <v>4</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="H11" s="32">
+        <v>1250000</v>
+      </c>
+      <c r="I11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>경기/인천</v>
+      </c>
+      <c r="J11" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>토요일</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="27">
-        <v>44359</v>
-      </c>
-      <c r="F5" s="5">
-        <v>170</v>
-      </c>
-      <c r="G5" s="15">
-        <v>50400</v>
-      </c>
-      <c r="H5" s="23">
-        <v>519</v>
-      </c>
-      <c r="I5" s="19" t="str">
-        <f t="shared" ref="I5:I12" si="0">CHOOSE(RIGHT(B5:B12),"3세이상","7세이상","13세이상")</f>
-        <v>7세이상</v>
-      </c>
-      <c r="J5" s="6">
-        <f>MONTH(E5)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="28">
-        <v>44347</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="16">
-        <v>16900</v>
-      </c>
-      <c r="H6" s="24">
-        <v>800</v>
-      </c>
-      <c r="I6" s="21" t="str">
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44680</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="33">
+        <v>400000</v>
+      </c>
+      <c r="I12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>3세이상</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ref="J6:J12" si="1">MONTH(E6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="28">
-        <v>44313</v>
-      </c>
-      <c r="F7" s="2">
-        <v>150</v>
-      </c>
-      <c r="G7" s="16">
-        <v>50000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>780</v>
-      </c>
-      <c r="I7" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>7세이상</v>
-      </c>
-      <c r="J7" s="7">
+        <v>서울</v>
+      </c>
+      <c r="J12" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="28">
-        <v>44270</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="16">
-        <v>70000</v>
-      </c>
-      <c r="H8" s="24">
-        <v>955</v>
-      </c>
-      <c r="I8" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>7세이상</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28">
-        <v>44368</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60</v>
-      </c>
-      <c r="G9" s="16">
-        <v>31000</v>
-      </c>
-      <c r="H9" s="24">
-        <v>750</v>
-      </c>
-      <c r="I9" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>3세이상</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="28">
-        <v>44345</v>
-      </c>
-      <c r="F10" s="2">
-        <v>170</v>
-      </c>
-      <c r="G10" s="16">
-        <v>64000</v>
-      </c>
-      <c r="H10" s="24">
-        <v>690</v>
-      </c>
-      <c r="I10" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>13세이상</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="28">
-        <v>44277</v>
-      </c>
-      <c r="F11" s="2">
-        <v>150</v>
-      </c>
-      <c r="G11" s="16">
-        <v>40000</v>
-      </c>
-      <c r="H11" s="24">
-        <v>4465</v>
-      </c>
-      <c r="I11" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>7세이상</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="29">
-        <v>44326</v>
-      </c>
-      <c r="F12" s="8">
-        <v>160</v>
-      </c>
-      <c r="G12" s="17">
-        <v>40000</v>
-      </c>
-      <c r="H12" s="25">
-        <v>819</v>
-      </c>
-      <c r="I12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>7세이상</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="36">
-        <f>AVERAGE(G5:G12)</f>
-        <v>45287.5</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="31">
-        <f>MAX(H5:H12)</f>
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>금요일</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4">
+        <f>DSUM(B4:H12,7,D4:D5)</f>
+        <v>840000</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="26">
+        <f>MIN(작업일)</f>
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="8">
-        <f>COUNTIF(공연지역,"전주")</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="9">
-        <f>VLOOKUP(H14,B4:H12,7,1)</f>
-        <v>819</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="11:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="26"/>
+      <c r="E14" s="27" t="str">
+        <f>COUNTIF(D5:E12,"사무실크리닝")&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="7">
+        <f>VLOOKUP(H14,B5:G12,6,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="12:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2480,15 +3186,15 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$F5&lt;=100</formula>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>$H5&gt;=1000000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>$C$5:$C$12</formula1>
+      <formula1>$B$5:$B$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,338 +3205,322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44662</v>
+      </c>
+      <c r="G3" s="28">
+        <v>3</v>
+      </c>
+      <c r="H3" s="31">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44678</v>
+      </c>
+      <c r="G4" s="29">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="H4" s="32">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44674</v>
+      </c>
+      <c r="G5" s="29">
+        <v>5</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44665</v>
+      </c>
+      <c r="G6" s="29">
+        <v>4</v>
+      </c>
+      <c r="H6" s="32">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44670</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44660</v>
+      </c>
+      <c r="G8" s="29">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="H8" s="32">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44674</v>
+      </c>
+      <c r="G9" s="29">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="H9" s="32">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44680</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2</v>
+      </c>
+      <c r="H10" s="33">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="19" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="27">
-        <v>44359</v>
-      </c>
-      <c r="F3" s="5">
-        <v>170</v>
-      </c>
-      <c r="G3" s="15">
-        <v>50400</v>
-      </c>
-      <c r="H3" s="23">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="28">
-        <v>44347</v>
-      </c>
-      <c r="F4" s="2">
-        <v>80</v>
-      </c>
-      <c r="G4" s="16">
-        <v>16900</v>
-      </c>
-      <c r="H4" s="24">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="28">
-        <v>44313</v>
-      </c>
-      <c r="F5" s="2">
-        <v>150</v>
-      </c>
-      <c r="G5" s="16">
-        <v>50000</v>
-      </c>
-      <c r="H5" s="24">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="28">
-        <v>44270</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="16">
-        <v>70000</v>
-      </c>
-      <c r="H6" s="24">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="28">
-        <v>44368</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
-      <c r="G7" s="16">
-        <v>31000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="28">
-        <v>44345</v>
-      </c>
-      <c r="F8" s="2">
-        <v>170</v>
-      </c>
-      <c r="G8" s="16">
-        <v>64000</v>
-      </c>
-      <c r="H8" s="24">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28">
-        <v>44277</v>
-      </c>
-      <c r="F9" s="2">
-        <v>150</v>
-      </c>
-      <c r="G9" s="16">
-        <v>40000</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="29">
-        <v>44326</v>
-      </c>
-      <c r="F10" s="8">
-        <v>160</v>
-      </c>
-      <c r="G10" s="17">
-        <v>40000</v>
-      </c>
-      <c r="H10" s="25">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>44347</v>
-      </c>
-      <c r="D19">
-        <v>16900</v>
-      </c>
-      <c r="E19">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>44270</v>
-      </c>
-      <c r="D20">
-        <v>70000</v>
-      </c>
-      <c r="E20">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>44345</v>
-      </c>
-      <c r="D21">
-        <v>64000</v>
-      </c>
-      <c r="E21">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>44277</v>
-      </c>
-      <c r="D22">
-        <v>40000</v>
-      </c>
-      <c r="E22">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>44326</v>
-      </c>
-      <c r="D23">
-        <v>40000</v>
-      </c>
-      <c r="E23">
-        <v>819</v>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44680</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F3&lt;=100</formula>
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>$H3&gt;=1000000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2842,236 +3532,341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="B2:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" customWidth="1"/>
+    <col min="14" max="19" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33" t="s">
+    <row r="2" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D5" s="34">
+        <v>240000</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="34">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="D6" s="34">
+        <v>300000</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1</v>
+      </c>
+      <c r="H6" s="34">
+        <v>330000</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="34">
+        <v>2</v>
+      </c>
+      <c r="F7" s="34">
+        <v>1140000</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="34">
+        <v>460000</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="34">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="27">
-        <v>44359</v>
-      </c>
-      <c r="F3" s="5">
-        <v>170</v>
-      </c>
-      <c r="G3" s="15">
-        <v>50400</v>
-      </c>
-      <c r="H3" s="23">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="28">
-        <v>44347</v>
-      </c>
-      <c r="F4" s="2">
-        <v>80</v>
-      </c>
-      <c r="G4" s="16">
-        <v>16900</v>
-      </c>
-      <c r="H4" s="24">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="28">
-        <v>44313</v>
-      </c>
-      <c r="F5" s="2">
-        <v>150</v>
-      </c>
-      <c r="G5" s="16">
-        <v>50000</v>
-      </c>
-      <c r="H5" s="24">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="28">
-        <v>44270</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="16">
-        <v>70000</v>
-      </c>
-      <c r="H6" s="24">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="28">
-        <v>44368</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
-      <c r="G7" s="16">
-        <v>31000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="28">
-        <v>44345</v>
-      </c>
-      <c r="F8" s="2">
-        <v>170</v>
-      </c>
-      <c r="G8" s="16">
-        <v>64000</v>
-      </c>
-      <c r="H8" s="24">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28">
-        <v>44277</v>
-      </c>
-      <c r="F9" s="2">
-        <v>150</v>
-      </c>
-      <c r="G9" s="16">
-        <v>40000</v>
-      </c>
-      <c r="H9" s="24">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="29">
-        <v>44326</v>
-      </c>
-      <c r="F10" s="8">
-        <v>160</v>
-      </c>
-      <c r="G10" s="17">
-        <v>40000</v>
-      </c>
-      <c r="H10" s="25">
-        <v>819</v>
-      </c>
+      <c r="D8" s="34">
+        <v>280000</v>
+      </c>
+      <c r="E8" s="34">
+        <v>2</v>
+      </c>
+      <c r="F8" s="34">
+        <v>1140000</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42">
+        <v>416666.66666666669</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F3&lt;=100</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -13,19 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
-    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제2작업" sheetId="3" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="2" r:id="rId3"/>
     <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$15</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="작업일">제1작업!$F$5:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
-  <si>
-    <t>관리번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>고객명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,14 +78,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>H01-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>F01-2</t>
+  </si>
+  <si>
+    <t>F01-2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>S01-1</t>
-  </si>
-  <si>
-    <t>S01-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -109,116 +109,128 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>임동진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인돌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이철수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나영희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박달재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한우주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고봉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+  </si>
+  <si>
+    <t>홈크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수크리닝</t>
+  </si>
+  <si>
+    <t>특수크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입주청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테리어청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산실청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어컨청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄눈시공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물외벽청소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥왁스작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈크리닝 비용(단위:원) 합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실크리닝 작업 개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 빠른 작업일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>F03-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>임동진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고인돌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김나래</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이철수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나영희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박달재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한우주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고봉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈크리닝</t>
-  </si>
-  <si>
-    <t>홈크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수크리닝</t>
-  </si>
-  <si>
-    <t>특수크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입주청소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인테리어청소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전산실청소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>계단청소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨청소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄눈시공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물외벽청소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥왁스작업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈크리닝 비용(단위:원) 합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무실크리닝 작업 개수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 빠른 작업일</t>
+    <t>&lt;&gt;특수크리닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=400000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -226,28 +238,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>H01-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파견인원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사무실크리닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=400000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>총합계</t>
   </si>
   <si>
     <t>개수 : 고객명</t>
   </si>
   <si>
+    <t>평균 : 비용(단위:원)</t>
+  </si>
+  <si>
     <t>2022-04-01 - 2022-04-10</t>
   </si>
   <si>
@@ -258,9 +257,6 @@
   </si>
   <si>
     <t>***</t>
-  </si>
-  <si>
-    <t>평균 : 비용(단위:원)</t>
   </si>
 </sst>
 </file>
@@ -269,7 +265,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot;명&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;명&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -283,9 +279,10 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="HyhwpEQ"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -316,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -340,16 +337,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -364,7 +374,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -379,7 +389,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -391,7 +401,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -403,13 +413,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -418,28 +443,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -454,22 +464,119 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -478,13 +585,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -493,175 +598,223 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,17 +824,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -689,35 +849,19 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -736,6 +880,23 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -753,6 +914,21 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -770,6 +946,23 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -787,6 +980,23 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -804,20 +1014,37 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -889,7 +1116,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
-              <a:t>사무크리닝 사업현황 분석</a:t>
+              <a:t>사무실크리닝 사업현황 분석</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
@@ -968,7 +1195,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-6A9D-497B-B146-C1734DC8799F}"/>
+                  <c16:uniqueId val="{0000000B-EAE4-4B12-AC03-4CC841444FC2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -986,7 +1213,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1082,7 +1309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A9D-497B-B146-C1734DC8799F}"/>
+              <c16:uniqueId val="{00000001-EAE4-4B12-AC03-4CC841444FC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1095,8 +1322,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="1248775375"/>
-        <c:axId val="1248775791"/>
+        <c:axId val="71817023"/>
+        <c:axId val="71811199"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1195,7 +1422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A9D-497B-B146-C1734DC8799F}"/>
+              <c16:uniqueId val="{00000000-EAE4-4B12-AC03-4CC841444FC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1209,11 +1436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1259079823"/>
-        <c:axId val="1259078991"/>
+        <c:axId val="177490207"/>
+        <c:axId val="177487711"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1248775375"/>
+        <c:axId val="71817023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1468,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1256,7 +1483,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1248775791"/>
+        <c:crossAx val="71811199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1264,7 +1491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1248775791"/>
+        <c:axId val="71811199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1525,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1313,12 +1540,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1248775375"/>
+        <c:crossAx val="71817023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1259078991"/>
+        <c:axId val="177487711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1567,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1355,13 +1582,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259079823"/>
+        <c:crossAx val="177490207"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1259079823"/>
+        <c:axId val="177490207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1259078991"/>
+        <c:crossAx val="177487711"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1403,7 +1630,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1444,7 +1671,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1100">
           <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
         </a:defRPr>
@@ -2017,13 +2244,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2032,8 +2259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="66675"/>
-          <a:ext cx="4857750" cy="695325"/>
+          <a:off x="200025" y="38100"/>
+          <a:ext cx="4924425" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="plus">
           <a:avLst/>
@@ -2041,13 +2268,6 @@
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2066,7 +2286,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2098,7 +2318,7 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>월 작업 현황 </a:t>
+            <a:t>월 작업 현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2108,15 +2328,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2140,8 +2360,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5248275" y="352425"/>
-          <a:ext cx="2352675" cy="466725"/>
+          <a:off x="5114925" y="200025"/>
+          <a:ext cx="2486025" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,12 +2414,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.69463</cdr:x>
-      <cdr:y>0.2439</cdr:y>
+      <cdr:x>0.69631</cdr:x>
+      <cdr:y>0.22208</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.82802</cdr:x>
-      <cdr:y>0.30424</cdr:y>
+      <cdr:x>0.81628</cdr:x>
+      <cdr:y>0.30937</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2208,18 +2428,18 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6464507" y="1483400"/>
-          <a:ext cx="1241373" cy="366946"/>
+          <a:off x="6480123" y="1350676"/>
+          <a:ext cx="1116455" cy="530902"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 53661"/>
-            <a:gd name="adj2" fmla="val 101733"/>
+            <a:gd name="adj1" fmla="val 49796"/>
+            <a:gd name="adj2" fmla="val 77990"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
       </cdr:spPr>
       <cdr:style>
@@ -2239,7 +2459,7 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
@@ -2268,22 +2488,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45049.353838541669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45054.350955324073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="관리번호" numFmtId="0">
-      <sharedItems count="8">
-        <s v="H01-1"/>
-        <s v="F01-2"/>
-        <s v="S01-1"/>
-        <s v="F02-1"/>
-        <s v="H02-2"/>
-        <s v="H03-1"/>
-        <s v="S02-2"/>
-        <s v="F03-1"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="고객명" numFmtId="0">
       <sharedItems/>
@@ -2309,7 +2520,7 @@
         <d v="2022-04-29T00:00:00"/>
       </sharedItems>
       <fieldGroup base="4">
-        <rangePr autoStart="0" autoEnd="0" groupBy="days" startDate="2022-04-01T00:00:00" endDate="2022-04-30T00:00:00" groupInterval="10"/>
+        <rangePr autoStart="0" groupBy="days" startDate="2022-04-01T00:00:00" endDate="2022-04-30T00:00:00" groupInterval="10"/>
         <groupItems count="5">
           <s v="&lt;2022-04-01"/>
           <s v="2022-04-01 - 2022-04-10"/>
@@ -2319,7 +2530,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="파견인원" numFmtId="180">
+    <cacheField name="파견인원" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="비용_x000a_(단위:원)" numFmtId="41">
@@ -2337,7 +2548,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <x v="0"/>
+    <s v="H01-1"/>
     <s v="임동진"/>
     <x v="0"/>
     <s v="입주청소"/>
@@ -2346,7 +2557,7 @@
     <n v="450000"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="F01-2"/>
     <s v="고인돌"/>
     <x v="1"/>
     <s v="인테리어청소"/>
@@ -2355,7 +2566,7 @@
     <n v="520000"/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="S01-1"/>
     <s v="김나래"/>
     <x v="2"/>
     <s v="전산실청소"/>
@@ -2364,7 +2575,7 @@
     <n v="1030000"/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="F02-1"/>
     <s v="이철수"/>
     <x v="1"/>
     <s v="계단청소"/>
@@ -2373,7 +2584,7 @@
     <n v="330000"/>
   </r>
   <r>
-    <x v="4"/>
+    <s v="H02-2"/>
     <s v="나영희"/>
     <x v="0"/>
     <s v="에어컨청소"/>
@@ -2382,7 +2593,7 @@
     <n v="150000"/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="H03-1"/>
     <s v="박달재"/>
     <x v="0"/>
     <s v="줄눈시공"/>
@@ -2391,7 +2602,7 @@
     <n v="240000"/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="S02-2"/>
     <s v="한우주"/>
     <x v="2"/>
     <s v="건물외벽청소"/>
@@ -2400,7 +2611,7 @@
     <n v="1250000"/>
   </r>
   <r>
-    <x v="7"/>
+    <s v="F03-1"/>
     <s v="최고봉"/>
     <x v="1"/>
     <s v="바닥왁스작업"/>
@@ -2412,22 +2623,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="8" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="작업일" colHeaderCaption="구분">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="작업일" colHeaderCaption="구분">
   <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="4">
@@ -2448,7 +2647,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="180" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
     <pivotField dataField="1" numFmtId="41" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -2497,22 +2696,45 @@
   </colItems>
   <dataFields count="2">
     <dataField name="개수 : 고객명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 비용(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="1"/>
+    <dataField name="평균 : 비용(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="0" numFmtId="41"/>
   </dataFields>
-  <formats count="3">
+  <formats count="7">
     <format dxfId="6">
-      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="2" count="2" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -2528,18 +2750,11 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="0">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="2" selected="0">
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2552,7 +2767,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="13">
   <autoFilter ref="B18:E21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="관리번호" dataDxfId="12"/>
@@ -2827,357 +3042,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+    <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23" t="s">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44662</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21">
+        <v>450000</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f t="shared" ref="I5:I12" si="0">IF(RIGHT(B5,1)="1","서울","경기/인천")</f>
+        <v>서울</v>
+      </c>
+      <c r="J5" s="29" t="str">
+        <f t="shared" ref="J5:J12" si="1">CHOOSE(WEEKDAY(F5),"일요일","월요일","화요일","수요일","목요일","금요일","토요일")</f>
+        <v>월요일</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44662</v>
-      </c>
-      <c r="G5" s="28">
-        <v>3</v>
-      </c>
-      <c r="H5" s="31">
-        <v>450000</v>
-      </c>
-      <c r="I5" s="15" t="str">
-        <f t="shared" ref="I5:I12" si="0">IF(RIGHT(B5:B12)="1","서울","경기/인천")</f>
-        <v>서울</v>
-      </c>
-      <c r="J5" s="36" t="str">
-        <f>CHOOSE(WEEKDAY(F5),"일요일","월요일","화요일","수요일","목요일","금요일","토요일")</f>
-        <v>월요일</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
         <v>44678</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="19">
         <v>2</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="22">
         <v>520000</v>
       </c>
-      <c r="I6" s="17" t="str">
+      <c r="I6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
-      <c r="J6" s="36" t="str">
-        <f t="shared" ref="J6:J12" si="1">CHOOSE(WEEKDAY(F6),"일요일","월요일","화요일","수요일","목요일","금요일","토요일")</f>
+      <c r="J6" s="30" t="str">
+        <f t="shared" si="1"/>
         <v>수요일</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2">
         <v>44674</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="19">
         <v>5</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="22">
         <v>1030000</v>
       </c>
-      <c r="I7" s="17" t="str">
+      <c r="I7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J7" s="36" t="str">
+      <c r="J7" s="30" t="str">
         <f t="shared" si="1"/>
         <v>토요일</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
         <v>44665</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="19">
         <v>4</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="22">
         <v>330000</v>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J8" s="36" t="str">
+      <c r="J8" s="30" t="str">
         <f t="shared" si="1"/>
         <v>목요일</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
         <v>44670</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="22">
         <v>150000</v>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
-      <c r="J9" s="36" t="str">
+      <c r="J9" s="30" t="str">
         <f t="shared" si="1"/>
         <v>화요일</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2">
         <v>44660</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="19">
         <v>3</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="22">
         <v>240000</v>
       </c>
-      <c r="I10" s="17" t="str">
+      <c r="I10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J10" s="36" t="str">
+      <c r="J10" s="30" t="str">
         <f t="shared" si="1"/>
         <v>토요일</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
         <v>44674</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="22">
         <v>1250000</v>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>경기/인천</v>
       </c>
-      <c r="J11" s="36" t="str">
+      <c r="J11" s="30" t="str">
         <f t="shared" si="1"/>
         <v>토요일</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="19" t="s">
+    <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4">
         <v>44680</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <v>2</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="23">
         <v>400000</v>
       </c>
-      <c r="I12" s="19" t="str">
+      <c r="I12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>서울</v>
       </c>
-      <c r="J12" s="36" t="str">
+      <c r="J12" s="31" t="str">
         <f t="shared" si="1"/>
         <v>금요일</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="32">
         <f>DSUM(B4:H12,7,D4:D5)</f>
         <v>840000</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="26">
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="33">
         <f>MIN(작업일)</f>
         <v>44660</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="53" t="str">
+        <f>COUNTIF(D4:D12,"사무실크리닝")&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="27" t="str">
-        <f>COUNTIF(D5:E12,"사무실크리닝")&amp;"개"</f>
-        <v>3개</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="7">
-        <f>VLOOKUP(H14,B5:G12,6,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="12:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="25"/>
+      <c r="H14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="34">
+        <f>VLOOKUP(H14,B4:G12,6,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="12:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3208,318 +3424,307 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44662</v>
+      </c>
+      <c r="G3" s="18">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44678</v>
+      </c>
+      <c r="G4" s="19">
+        <v>2</v>
+      </c>
+      <c r="H4" s="22">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44674</v>
+      </c>
+      <c r="G5" s="19">
+        <v>5</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44665</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44670</v>
+      </c>
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="H7" s="22">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44660</v>
+      </c>
+      <c r="G8" s="19">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="H8" s="22">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44674</v>
+      </c>
+      <c r="G9" s="19">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="H9" s="22">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44680</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="23">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="37">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44662</v>
-      </c>
-      <c r="G3" s="28">
-        <v>3</v>
-      </c>
-      <c r="H3" s="31">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="38">
         <v>44678</v>
       </c>
-      <c r="G4" s="29">
-        <v>2</v>
-      </c>
-      <c r="H4" s="32">
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44674</v>
-      </c>
-      <c r="G5" s="29">
-        <v>5</v>
-      </c>
-      <c r="H5" s="32">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44665</v>
-      </c>
-      <c r="G6" s="29">
-        <v>4</v>
-      </c>
-      <c r="H6" s="32">
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44670</v>
-      </c>
-      <c r="G7" s="29">
-        <v>1</v>
-      </c>
-      <c r="H7" s="32">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="17" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3">
-        <v>44660</v>
-      </c>
-      <c r="G8" s="29">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3">
-        <v>44674</v>
-      </c>
-      <c r="G9" s="29">
-        <v>4</v>
-      </c>
-      <c r="H9" s="32">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44680</v>
-      </c>
-      <c r="G10" s="30">
-        <v>2</v>
-      </c>
-      <c r="H10" s="33">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44662</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="E21" s="44">
         <v>44680</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$H3&gt;=1000000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3532,256 +3737,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W19"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18" style="2" customWidth="1"/>
-    <col min="14" max="19" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="48"/>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-    </row>
-    <row r="3" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="39"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+      <c r="C3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="49"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="41" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>53</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="46">
         <v>1</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="46">
         <v>240000</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="52" t="s">
         <v>57</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="46">
         <v>2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="46">
         <v>300000</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="46">
         <v>1</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="46">
         <v>330000</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="46">
         <v>2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="46">
         <v>1140000</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="46">
         <v>2</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="46">
         <v>460000</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="34">
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="46">
         <v>3</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="46">
         <v>280000</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="46">
         <v>2</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="46">
         <v>1140000</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="46">
         <v>3</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="46">
         <v>416666.66666666669</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -3792,7 +3924,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -3803,7 +3935,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -3814,7 +3946,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -3825,22 +3957,22 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>

--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ITQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,15 +15,18 @@
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
+    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="연식">제1작업!$G$5:$G$12</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$13:$B$15</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$H$18</definedName>
+    <definedName name="부서명">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,231 +36,185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
-  <si>
-    <t>관리코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주행거리
-(km)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가
-순위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1-001</t>
-  </si>
-  <si>
-    <t>S1-001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2-001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3-002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1-003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1-002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2-004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2-003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3-005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승용차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레저</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승용차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레저</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아반떼X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>렉스턴20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴K5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>체어맨W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>싼타페S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>더모닝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카니발21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소나타V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승용차 평균 주행거리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연식이 2020년인 차종수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최저 주행거리(km)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가 전체 평균</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=50000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대 평균</t>
-  </si>
-  <si>
-    <t>쌍용 평균</t>
-  </si>
-  <si>
-    <t>기아 평균</t>
-  </si>
-  <si>
-    <t>전체 평균</t>
-  </si>
-  <si>
-    <t>현대 개수</t>
-  </si>
-  <si>
-    <t>쌍용 개수</t>
-  </si>
-  <si>
-    <t>기아 개수</t>
-  </si>
-  <si>
-    <t>전체 개수</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+  <si>
+    <t>입사일자</t>
+  </si>
+  <si>
+    <t>입사일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서명</t>
+  </si>
+  <si>
+    <t>부서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상반기
+고과점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하반기
+고과점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승진
+시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연옥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태열</t>
+  </si>
+  <si>
+    <t>김태열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강준희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최현아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한승현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계과</t>
+  </si>
+  <si>
+    <t>회계과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부</t>
+  </si>
+  <si>
+    <t>기획부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원들의 상반기 고과점수 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016년 이후(해당년도 포함) 입사자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부의 승진시험 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고과점수
+합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>2015년</t>
+  </si>
+  <si>
+    <t>2016년</t>
+  </si>
+  <si>
+    <t>2017년</t>
+  </si>
+  <si>
+    <t>개수 : 직급</t>
+  </si>
+  <si>
+    <t>평균 : 승진시험</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -266,17 +223,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;원&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,###&quot;점&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,14 +248,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -322,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -523,6 +464,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
@@ -533,9 +487,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
@@ -547,9 +499,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -558,12 +508,95 @@
       </diagonal>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -571,204 +604,549 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="41">
     <dxf>
       <font>
         <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#,###&quot;점&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#,###&quot;점&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#,###&quot;점&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <i/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -819,7 +1197,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
-              <a:t>현대 및 기아자동차 판매관리 현황</a:t>
+              <a:t>마케팅부 및 기획부 고과점수</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
@@ -861,17 +1239,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.3318631611624399E-2"/>
-          <c:y val="9.8456135839394845E-2"/>
-          <c:w val="0.81518704400297726"/>
-          <c:h val="0.77443160882526596"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -880,7 +1248,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>주행거리(km)</c:v>
+            <c:v>상반기 고과점수</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -892,138 +1260,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$E$5,제1작업!$E$7,제1작업!$E$9:$E$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>아반떼X</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>뉴K5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>싼타페S</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>더모닝</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>카니발21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>소나타V</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$F$5,제1작업!$F$7,제1작업!$F$9:$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E6B-48A0-A290-BE0D2D2B586B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:axId val="1353478016"/>
-        <c:axId val="1353470944"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>판매가</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-3E6B-48A0-A290-BE0D2D2B586B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1053,14 +1290,17 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1081,53 +1321,157 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$E$5,제1작업!$E$7,제1작업!$E$9:$E$12)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>아반떼X</c:v>
+                  <c:v>이연옥</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>뉴K5</c:v>
+                  <c:v>이민주</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>싼타페S</c:v>
+                  <c:v>강준희</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>더모닝</c:v>
+                  <c:v>최현아</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>카니발21</c:v>
+                  <c:v>최은선</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>소나타V</c:v>
+                  <c:v>한승현</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$H$5,제1작업!$H$7,제1작업!$H$9:$H$12)</c:f>
+              <c:f>(제1작업!$F$5,제1작업!$F$7:$F$9,제1작업!$F$11:$F$12)</c:f>
               <c:numCache>
-                <c:formatCode>#,##0"원"</c:formatCode>
+                <c:formatCode>#,###"점"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5150000</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4350000</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200000</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2050000</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6750000</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3950000</c:v>
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA3F-4E37-914C-E9E2EFD77287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="2037625328"/>
+        <c:axId val="2037625744"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>하반기 고과점수</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7:$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>이연옥</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>이민주</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>강준희</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>최현아</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>최은선</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>한승현</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$7:$G$9,제1작업!$G$11:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,###"점"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,7 +1479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E6B-48A0-A290-BE0D2D2B586B}"/>
+              <c16:uniqueId val="{00000001-EA3F-4E37-914C-E9E2EFD77287}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1149,11 +1493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1384143936"/>
-        <c:axId val="1384150176"/>
+        <c:axId val="2097906064"/>
+        <c:axId val="2097898160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1353478016"/>
+        <c:axId val="2037625328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1540,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1353470944"/>
+        <c:crossAx val="2037625744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,10 +1548,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1353470944"/>
+        <c:axId val="2037625744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1223,7 +1566,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,###&quot;점&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1254,18 +1597,20 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1353478016"/>
+        <c:crossAx val="2037625328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1384150176"/>
+        <c:axId val="2097898160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,###&quot;점&quot;" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1296,13 +1641,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1384143936"/>
+        <c:crossAx val="2097906064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000000"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1384143936"/>
+        <c:axId val="2097906064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1384150176"/>
+        <c:crossAx val="2097898160"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1956,32 +2301,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="배지 2"/>
+        <xdr:cNvPr id="2" name="양쪽 모서리가 둥근 사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="76200"/>
-          <a:ext cx="4419600" cy="628650"/>
+          <a:off x="219075" y="47625"/>
+          <a:ext cx="4352925" cy="714375"/>
         </a:xfrm>
-        <a:prstGeom prst="plaque">
+        <a:prstGeom prst="round2SameRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2005,14 +2357,24 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>푸른중고나라 자동차 판매관리</a:t>
+            <a:t>2020</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>년 우리물산 인사고과표</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2021,20 +2383,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>409576</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2054,8 +2416,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4667251" y="57150"/>
-          <a:ext cx="2324100" cy="657225"/>
+          <a:off x="4724401" y="104775"/>
+          <a:ext cx="2495550" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,12 +2470,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.18456</cdr:x>
-      <cdr:y>0.52888</cdr:y>
+      <cdr:x>0.4656</cdr:x>
+      <cdr:y>0.12965</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.29279</cdr:x>
-      <cdr:y>0.60334</cdr:y>
+      <cdr:x>0.6443</cdr:x>
+      <cdr:y>0.18485</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2122,13 +2484,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1717623" y="3216639"/>
-          <a:ext cx="1007151" cy="452828"/>
+          <a:off x="4333095" y="788545"/>
+          <a:ext cx="1662971" cy="335717"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 41958"/>
-            <a:gd name="adj2" fmla="val 105603"/>
+            <a:gd name="adj1" fmla="val 75411"/>
+            <a:gd name="adj2" fmla="val 41912"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2153,7 +2515,7 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
@@ -2163,15 +2525,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>승용차 최신형</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 모델</a:t>
+            <a:t>상반기 최고 점수</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR">
             <a:solidFill>
@@ -2183,6 +2537,440 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows 사용자" refreshedDate="45057.41713483796" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="입사일자" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-01-09T00:00:00" maxDate="2017-08-10T00:00:00" count="8">
+        <d v="2016-07-09T00:00:00"/>
+        <d v="2017-08-09T00:00:00"/>
+        <d v="2015-12-23T00:00:00"/>
+        <d v="2016-09-22T00:00:00"/>
+        <d v="2015-01-09T00:00:00"/>
+        <d v="2015-05-01T00:00:00"/>
+        <d v="2016-04-17T00:00:00"/>
+        <d v="2017-03-27T00:00:00"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2015-01-09T00:00:00" endDate="2017-08-10T00:00:00"/>
+        <groupItems count="5">
+          <s v="&lt;2015-01-09"/>
+          <s v="2015년"/>
+          <s v="2016년"/>
+          <s v="2017년"/>
+          <s v="&gt;2017-08-10"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="직원명" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="부서명" numFmtId="0">
+      <sharedItems count="3">
+        <s v="마케팅부"/>
+        <s v="회계과"/>
+        <s v="기획부"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="직급" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="상반기_x000a_고과점수" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="88"/>
+    </cacheField>
+    <cacheField name="하반기_x000a_고과점수" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48" maxValue="88"/>
+    </cacheField>
+    <cacheField name="승진_x000a_시험" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="80"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <x v="0"/>
+    <s v="이연옥"/>
+    <x v="0"/>
+    <s v="사원"/>
+    <n v="84"/>
+    <n v="66"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="김태열"/>
+    <x v="1"/>
+    <s v="부장"/>
+    <n v="45"/>
+    <n v="85"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="이민주"/>
+    <x v="2"/>
+    <s v="사원"/>
+    <n v="66"/>
+    <n v="88"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="강준희"/>
+    <x v="0"/>
+    <s v="주임"/>
+    <n v="79"/>
+    <n v="55"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="최현아"/>
+    <x v="2"/>
+    <s v="부장"/>
+    <n v="75"/>
+    <n v="68"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="박진석"/>
+    <x v="1"/>
+    <s v="사원"/>
+    <n v="74"/>
+    <n v="55"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="최은선"/>
+    <x v="0"/>
+    <s v="과장"/>
+    <n v="88"/>
+    <n v="48"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="한승현"/>
+    <x v="2"/>
+    <s v="과장"/>
+    <n v="55"/>
+    <n v="77"/>
+    <n v="69"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입사일자" colHeaderCaption="부서명">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 직급" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 승진시험" fld="6" subtotal="average" baseField="8" baseItem="0"/>
+  </dataFields>
+  <formats count="29">
+    <format dxfId="29">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:H23" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="38" tableBorderDxfId="39">
+  <autoFilter ref="B18:H23"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="입사일자" dataDxfId="37"/>
+    <tableColumn id="2" name="직원명" dataDxfId="36"/>
+    <tableColumn id="3" name="부서명" dataDxfId="35"/>
+    <tableColumn id="4" name="직급" dataDxfId="34"/>
+    <tableColumn id="5" name="상반기_x000a_고과점수" dataDxfId="33"/>
+    <tableColumn id="6" name="하반기_x000a_고과점수" dataDxfId="32"/>
+    <tableColumn id="7" name="승진_x000a_시험" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2451,1057 +3239,1069 @@
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="35" width="8.75" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="7.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>42560</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="25">
+        <v>84</v>
+      </c>
+      <c r="G5" s="25">
+        <v>66</v>
+      </c>
+      <c r="H5" s="25">
+        <v>80</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I12" si="0">_xlfn.RANK.EQ(H5,$H$5:$H$12)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>IF(AND(YEAR(B5)&gt;=2016,H5&lt;=80),"승진"," ")</f>
+        <v>승진</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>42956</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26">
+        <v>45</v>
+      </c>
+      <c r="G6" s="26">
+        <v>85</v>
+      </c>
+      <c r="H6" s="26">
+        <v>73</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="J6" s="9" t="str">
+        <f>IF(AND(YEAR(B6)&lt;=2016,H6&lt;=80),"승진"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>42361</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="26">
+        <v>66</v>
+      </c>
+      <c r="G7" s="26">
+        <v>88</v>
+      </c>
+      <c r="H7" s="26">
+        <v>63</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" ref="J5:J12" si="1">IF(AND(YEAR(B7)&gt;=2016,H7&lt;=80),"승진"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>42635</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="26">
+        <v>79</v>
+      </c>
+      <c r="G8" s="26">
+        <v>55</v>
+      </c>
+      <c r="H8" s="26">
+        <v>66</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>승진</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>42013</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="26">
+        <v>75</v>
+      </c>
+      <c r="G9" s="26">
+        <v>68</v>
+      </c>
+      <c r="H9" s="26">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>42125</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="26">
+        <v>74</v>
+      </c>
+      <c r="G10" s="26">
+        <v>55</v>
+      </c>
+      <c r="H10" s="26">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>42477</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="26">
+        <v>88</v>
+      </c>
+      <c r="G11" s="26">
+        <v>48</v>
+      </c>
+      <c r="H11" s="26">
+        <v>76</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>승진</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="27">
+        <v>55</v>
+      </c>
+      <c r="G12" s="27">
+        <v>77</v>
+      </c>
+      <c r="H12" s="27">
+        <v>69</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="22">
-        <v>13226</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="J12" s="12" t="str">
+        <f>IF(AND(YEAR(B12)&gt;=2016,H12&gt;=80),"승진"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6">
+        <f>DSUM(B4:H12,5,F5:F12)/DCOUNTA(B4:H12,5,F5:F12)</f>
+        <v>70.75</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="7">
+        <f>ROUNDDOWN(DAVERAGE(B4:H12,7,H5:H12),-1)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11" t="str">
+        <f>COUNTIF(B5:B12,"&lt;=42560")&amp;"명"</f>
+        <v>5명</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="25">
-        <v>5150000</v>
-      </c>
-      <c r="I5" s="15" t="str">
-        <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,2,1),"가솔린","디젤","하이브리드")</f>
-        <v>가솔린</v>
-      </c>
-      <c r="J5" s="16" t="str">
-        <f t="shared" ref="J5:J12" si="1">_xlfn.RANK.EQ(H5,$H$5:$H$12)&amp;"위"</f>
-        <v>3위</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="23">
-        <v>32545</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="26">
-        <v>4500000</v>
-      </c>
-      <c r="I6" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>디젤</v>
-      </c>
-      <c r="J6" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>4위</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="23">
-        <v>16298</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="26">
-        <v>4350000</v>
-      </c>
-      <c r="I7" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>하이브리드</v>
-      </c>
-      <c r="J7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>5위</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="23">
-        <v>33579</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="26">
-        <v>6150000</v>
-      </c>
-      <c r="I8" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>가솔린</v>
-      </c>
-      <c r="J8" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>2위</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="23">
-        <v>57232</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="26">
-        <v>3200000</v>
-      </c>
-      <c r="I9" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>가솔린</v>
-      </c>
-      <c r="J9" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>7위</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="23">
-        <v>25337</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="26">
-        <v>2050000</v>
-      </c>
-      <c r="I10" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>디젤</v>
-      </c>
-      <c r="J10" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>8위</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="23">
-        <v>12593</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="26">
-        <v>6750000</v>
-      </c>
-      <c r="I11" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>디젤</v>
-      </c>
-      <c r="J11" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>1위</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="24">
-        <v>27352</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="27">
-        <v>3950000</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>하이브리드</v>
-      </c>
-      <c r="J12" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>6위</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="29">
-        <f>ROUND(DAVERAGE(B4:H12,5,D4:D5),-1)</f>
-        <v>23160</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="28">
-        <f>MIN(F5:F12)</f>
-        <v>12593</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8">
-        <f>COUNTIF(연식,"2020년")</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="21">
-        <f>VLOOKUP(H14,B5:H12,7,0)</f>
-        <v>5150000</v>
+      <c r="J14" s="12" t="e">
+        <f>VLOOKUP(H14,B5:H12,5,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="42"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$H5&gt;=5000000</formula>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H5&gt;=70</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>$B$5:$B$12</formula1>
+      <formula1>$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="5">
+        <v>42560</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="25">
+        <v>84</v>
+      </c>
+      <c r="G3" s="25">
+        <v>66</v>
+      </c>
+      <c r="H3" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>42956</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="26">
+        <v>45</v>
+      </c>
+      <c r="G4" s="26">
+        <v>85</v>
+      </c>
+      <c r="H4" s="26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>42361</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26">
+        <v>66</v>
+      </c>
+      <c r="G5" s="26">
+        <v>88</v>
+      </c>
+      <c r="H5" s="26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>42635</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26">
+        <v>79</v>
+      </c>
+      <c r="G6" s="26">
+        <v>55</v>
+      </c>
+      <c r="H6" s="26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>42013</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="26">
+        <v>75</v>
+      </c>
+      <c r="G7" s="26">
+        <v>68</v>
+      </c>
+      <c r="H7" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>42125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="26">
+        <v>74</v>
+      </c>
+      <c r="G8" s="26">
+        <v>55</v>
+      </c>
+      <c r="H8" s="26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>42477</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="22">
-        <v>13226</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="25">
-        <v>5850000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="26">
+        <v>88</v>
+      </c>
+      <c r="G9" s="26">
+        <v>48</v>
+      </c>
+      <c r="H9" s="26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
+        <v>42821</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="23">
-        <v>32545</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="26">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="23">
-        <v>16298</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="27">
+        <v>55</v>
+      </c>
+      <c r="G10" s="27">
+        <v>77</v>
+      </c>
+      <c r="H10" s="27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="26">
-        <v>4350000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="23">
-        <v>33579</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="26">
-        <v>6150000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="23">
-        <v>57232</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="26">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="23">
-        <v>25337</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="26">
-        <v>2050000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="23">
-        <v>12593</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="26">
-        <v>6750000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="32">
-        <v>27352</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="33">
-        <v>3950000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36">
-        <f>AVERAGE(H3:H10)</f>
-        <v>4600000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="28">
+        <v>42560</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="25">
+        <v>84</v>
+      </c>
+      <c r="G19" s="25">
+        <v>66</v>
+      </c>
+      <c r="H19" s="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="29">
+        <v>42956</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="26">
+        <v>45</v>
+      </c>
+      <c r="G20" s="26">
+        <v>85</v>
+      </c>
+      <c r="H20" s="31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="29">
+        <v>42635</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="26">
+        <v>79</v>
+      </c>
+      <c r="G21" s="26">
+        <v>55</v>
+      </c>
+      <c r="H21" s="31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="29">
+        <v>42125</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26">
+        <v>74</v>
+      </c>
+      <c r="G22" s="26">
+        <v>55</v>
+      </c>
+      <c r="H22" s="31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="36">
+        <v>42477</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="37">
+        <v>88</v>
+      </c>
+      <c r="G23" s="37">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="23">
-        <v>32545</v>
-      </c>
-      <c r="E19" s="26">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="23">
-        <v>33579</v>
-      </c>
-      <c r="E20" s="26">
-        <v>6150000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="23">
-        <v>57232</v>
-      </c>
-      <c r="E21" s="26">
-        <v>3200000</v>
+      <c r="H23" s="38">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:G11"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$H3&gt;=5000000</formula>
+    <cfRule type="expression" dxfId="40" priority="1">
+      <formula>$H3&gt;=70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="7.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="39"/>
+      <c r="C3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="45">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D5" s="45">
+        <v>52</v>
+      </c>
+      <c r="E5" s="45">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F5" s="45">
+        <v>47.5</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="45">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="22">
-        <v>13226</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="25">
-        <v>5150000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="23">
-        <v>57232</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="26">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="23">
-        <v>27352</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="26">
-        <v>3950000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="26">
-        <f>SUBTOTAL(1,H3:H5)</f>
-        <v>4100000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18">
-        <f>SUBTOTAL(3,E3:E5)</f>
+      <c r="H6" s="45">
+        <v>74</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1</v>
+      </c>
+      <c r="D7" s="45">
+        <v>73</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45">
+        <v>69</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="45">
+        <v>2</v>
+      </c>
+      <c r="D8" s="45">
+        <v>62.5</v>
+      </c>
+      <c r="E8" s="45">
         <v>3</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="23">
-        <v>32545</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="26">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="23">
-        <v>33579</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="26">
-        <v>6150000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="26">
-        <f>SUBTOTAL(1,H8:H9)</f>
-        <v>5325000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18">
-        <f>SUBTOTAL(3,E8:E9)</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="23">
-        <v>16298</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="26">
-        <v>4350000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="23">
-        <v>25337</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="26">
-        <v>2050000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="24">
-        <v>12593</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="27">
-        <v>6750000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="39">
-        <f>SUBTOTAL(1,H12:H14)</f>
-        <v>4383333.333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37">
-        <f>SUBTOTAL(3,E12:E14)</f>
+      <c r="F8" s="45">
+        <v>54.666666666666664</v>
+      </c>
+      <c r="G8" s="45">
         <v>3</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="39">
-        <f>SUBTOTAL(1,H3:H14)</f>
-        <v>4512500</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37">
-        <f>SUBTOTAL(3,E3:E14)</f>
-        <v>8</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="39"/>
+      <c r="H8" s="45">
+        <v>74</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
     </row>
   </sheetData>
-  <sortState ref="B3:H10">
-    <sortCondition descending="1" ref="C3:C10"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B3:H18">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$H3&gt;=5000000</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,15 +15,19 @@
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
+    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="제조국가">제1작업!$E$5:$E$12</definedName>
+    <definedName name="모집인원">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,39 +37,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
-  <si>
-    <t>상품코드</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+  <si>
+    <t>대학코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품명</t>
+    <t>대학명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수입일자</t>
+    <t>전형명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제조국가</t>
+    <t>모집인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매가(원)</t>
+    <t>지원자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전월
-판매량</t>
+    <t>2022년
+경쟁률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>당월
-판매량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조명 종류</t>
+    <t>2021년
+경쟁률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,162 +73,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HA-303</t>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC-261</t>
+    <t>J-241</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LA-702</t>
+    <t>H-514</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FA-251</t>
+    <t>A-248</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SA-802</t>
+    <t>S-197</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EA-102</t>
+    <t>C-164</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KB-603</t>
+    <t>K-318</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS-103</t>
+    <t>Z-167</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핀란드 상품 당월 판매량 평균</t>
+    <t>Y-845</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독일 상품 개수</t>
+    <t>중희대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버블팝</t>
+    <t>수일여대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나탈리</t>
+    <t>서인대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로즈골드</t>
+    <t>세호대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시드</t>
+    <t>성일대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카르텔</t>
+    <t>건영대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>슈팅스타</t>
+    <t>진영대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루이스</t>
+    <t>학업우수자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노피너피</t>
+    <t>학업우수자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핀란드</t>
+    <t>특기자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독일</t>
+    <t>일반전형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핀란드</t>
+    <t>일반전형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베트남</t>
+    <t>최대 모집인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핀란드</t>
+    <t>대학명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베트남</t>
+    <t>학업우수자 2022년 경쟁률의 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독일</t>
+    <t>한진대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최저 판매가(원)</t>
+    <t>지원자가 10,000명 이상인 대학의 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매가(원)</t>
+    <t>중희대</t>
+  </si>
+  <si>
+    <t>학업우수자</t>
+  </si>
+  <si>
+    <t>학업우수자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HA-303</t>
-  </si>
-  <si>
-    <t>판매가(원)의 전체 평균</t>
+    <t>&gt;=10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베트남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀란드 개수</t>
-  </si>
-  <si>
-    <t>베트남 개수</t>
-  </si>
-  <si>
-    <t>독일 개수</t>
-  </si>
-  <si>
-    <t>전체 개수</t>
-  </si>
-  <si>
-    <t>핀란드 평균</t>
-  </si>
-  <si>
-    <t>베트남 평균</t>
-  </si>
-  <si>
-    <t>독일 평균</t>
-  </si>
-  <si>
-    <t>전체 평균</t>
+    <t>일반전형</t>
+  </si>
+  <si>
+    <t>특기자</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 대학명</t>
+  </si>
+  <si>
+    <t>전형명</t>
+  </si>
+  <si>
+    <t>모집인원</t>
+  </si>
+  <si>
+    <t>201-300</t>
+  </si>
+  <si>
+    <t>301-400</t>
+  </si>
+  <si>
+    <t>401-500</t>
+  </si>
+  <si>
+    <t>501-600</t>
+  </si>
+  <si>
+    <t>평균 : 2022년 경쟁률</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0&quot;건&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;명&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,22 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="굴림"/>
@@ -282,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -484,55 +476,199 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -540,188 +676,420 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="176" formatCode="#,##0&quot;명&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -785,7 +1153,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
-              <a:t>핀란드 및 독일상품 판매 현황</a:t>
+              <a:t>학업우수자 및 일반전형 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+              <a:t>2022</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>년 경쟁률</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
@@ -797,7 +1173,7 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln cmpd="dbl">
+        <a:ln cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -833,22 +1209,14 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>판매가(원)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2022년 경쟁률</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -856,11 +1224,123 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$10,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>중희대</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>한진대</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>서인대</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>세호대</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>성일대</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>진영대</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8:$G$10,제1작업!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2E5-48E6-9A6B-3E1AD6650727}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1045129999"/>
+        <c:axId val="1045130831"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>모집인원</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="3"/>
               <c:layout/>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -872,7 +1352,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-119D-483B-8AD4-6DC5217FB702}"/>
+                  <c16:uniqueId val="{00000006-A2E5-48E6-9A6B-3E1AD6650727}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -933,157 +1413,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$9,제1작업!$C$11:$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$10,제1작업!$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>버블팝</c:v>
+                  <c:v>중희대</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>나탈리</c:v>
+                  <c:v>한진대</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>로즈골드</c:v>
+                  <c:v>서인대</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>카르텔</c:v>
+                  <c:v>세호대</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>루이스</c:v>
+                  <c:v>성일대</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>노피너피</c:v>
+                  <c:v>진영대</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$F$5:$F$7,제1작업!$F$9,제1작업!$F$11:$F$12)</c:f>
+              <c:f>(제1작업!$E$5:$E$6,제1작업!$E$8:$E$10,제1작업!$E$12)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>#,##0"명"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>56800</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>419000</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194000</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>345000</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52000</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-119D-483B-8AD4-6DC5217FB702}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="398955536"/>
-        <c:axId val="399609360"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>당원판매량</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$9,제1작업!$C$11:$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>버블팝</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>나탈리</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>로즈골드</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>카르텔</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>루이스</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>노피너피</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$H$5:$H$7,제1작업!$H$9,제1작업!$H$11:$H$12)</c:f>
-              <c:numCache>
-                <c:formatCode>0"건"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1467,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-119D-483B-8AD4-6DC5217FB702}"/>
+              <c16:uniqueId val="{00000000-A2E5-48E6-9A6B-3E1AD6650727}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1105,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591066032"/>
-        <c:axId val="591067696"/>
+        <c:axId val="1131565503"/>
+        <c:axId val="1131564671"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398955536"/>
+        <c:axId val="1045129999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1528,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399609360"/>
+        <c:crossAx val="1045130831"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399609360"/>
+        <c:axId val="1045130831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1554,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1209,18 +1585,18 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398955536"/>
+        <c:crossAx val="1045129999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="591067696"/>
+        <c:axId val="1131564671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0&quot;건&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;명&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1251,13 +1627,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591066032"/>
+        <c:crossAx val="1131565503"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="40"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="591066032"/>
+        <c:axId val="1131565503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591067696"/>
+        <c:crossAx val="1131564671"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1911,34 +2287,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41672</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="사다리꼴 1"/>
+        <xdr:cNvPr id="2" name="한쪽 모서리가 잘린 사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="166688" y="35719"/>
-          <a:ext cx="3714750" cy="458390"/>
+          <a:off x="209549" y="66675"/>
+          <a:ext cx="4371975" cy="723900"/>
         </a:xfrm>
-        <a:prstGeom prst="trapezoid">
+        <a:prstGeom prst="snip1Rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
             <a:prstClr val="black">
               <a:alpha val="40000"/>
             </a:prstClr>
@@ -1962,10 +2338,20 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>2020</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
               <a:solidFill>
@@ -1974,7 +2360,7 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>인테리어 조명 판매 현황</a:t>
+            <a:t>학년도 대학 수시 경쟁률</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1983,16 +2369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220266</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>75010</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2016,8 +2402,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3982641" y="59532"/>
-          <a:ext cx="2622947" cy="438150"/>
+          <a:off x="4752975" y="76200"/>
+          <a:ext cx="2438400" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,12 +2456,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64178</cdr:x>
+      <cdr:x>0.66527</cdr:x>
       <cdr:y>0.11168</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75923</cdr:x>
-      <cdr:y>0.18999</cdr:y>
+      <cdr:x>0.80621</cdr:x>
+      <cdr:y>0.16431</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2084,18 +2470,18 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5972645" y="679241"/>
-          <a:ext cx="1093031" cy="476251"/>
+          <a:off x="6191250" y="679242"/>
+          <a:ext cx="1311640" cy="320102"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -83547"/>
-            <a:gd name="adj2" fmla="val -3500"/>
+            <a:gd name="adj1" fmla="val -68452"/>
+            <a:gd name="adj2" fmla="val 26626"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </cdr:spPr>
       <cdr:style>
@@ -2115,28 +2501,348 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>당월 최다 판매</a:t>
+            <a:t>최대인원</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45057.738773495374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="대학코드" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="대학명" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="전형명" numFmtId="0">
+      <sharedItems count="3">
+        <s v="학업우수자"/>
+        <s v="특기자"/>
+        <s v="일반전형"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="모집인원" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="230" maxValue="590" count="8">
+        <n v="260"/>
+        <n v="230"/>
+        <n v="352"/>
+        <n v="354"/>
+        <n v="468"/>
+        <n v="410"/>
+        <n v="590"/>
+        <n v="300"/>
+      </sharedItems>
+      <fieldGroup base="3">
+        <rangePr autoStart="0" autoEnd="0" startNum="201" endNum="600" groupInterval="100"/>
+        <groupItems count="6">
+          <s v="&lt;201"/>
+          <s v="201-300"/>
+          <s v="301-400"/>
+          <s v="401-500"/>
+          <s v="501-600"/>
+          <s v="&gt;601"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="지원자" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3305" maxValue="10648"/>
+    </cacheField>
+    <cacheField name="2022년_x000a_경쟁률" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.36" maxValue="28.55"/>
+    </cacheField>
+    <cacheField name="2021년_x000a_경쟁률" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.600000000000001" maxValue="40.57"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="J-241"/>
+    <s v="중희대"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6815"/>
+    <n v="26.21"/>
+    <n v="23.95"/>
+  </r>
+  <r>
+    <s v="H-514"/>
+    <s v="한진대"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3305"/>
+    <n v="14.36"/>
+    <n v="28.51"/>
+  </r>
+  <r>
+    <s v="A-248"/>
+    <s v="수일여대"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="6012"/>
+    <n v="17.079999999999998"/>
+    <n v="16.600000000000001"/>
+  </r>
+  <r>
+    <s v="S-197"/>
+    <s v="서인대"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="10105"/>
+    <n v="28.55"/>
+    <n v="40.57"/>
+  </r>
+  <r>
+    <s v="C-164"/>
+    <s v="세호대"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="10648"/>
+    <n v="22.75"/>
+    <n v="26.37"/>
+  </r>
+  <r>
+    <s v="K-318"/>
+    <s v="성일대"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="7337"/>
+    <n v="17.899999999999999"/>
+    <n v="16.71"/>
+  </r>
+  <r>
+    <s v="Y-845"/>
+    <s v="건영대"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="8915"/>
+    <n v="15.11"/>
+    <n v="22.87"/>
+  </r>
+  <r>
+    <s v="Z-167"/>
+    <s v="진영대"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="7218"/>
+    <n v="24.06"/>
+    <n v="25"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="모집인원" colHeaderCaption="전형명">
+  <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="176" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 대학명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 2022년 경쟁률" fld="5" subtotal="average" baseField="3" baseItem="1"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="대학명" dataDxfId="9"/>
+    <tableColumn id="2" name="전형명" dataDxfId="8"/>
+    <tableColumn id="3" name="지원자" dataDxfId="7"/>
+    <tableColumn id="4" name="2022년_x000a_경쟁률" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2402,355 +3108,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L16"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="7.375" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8">
-        <v>42504</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="31">
-        <v>56800</v>
-      </c>
-      <c r="G5" s="31">
-        <v>64</v>
-      </c>
-      <c r="H5" s="28">
-        <v>95</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I12" si="0">CHOOSE(RIGHT(B5,1),"방","거실","포인트")</f>
-        <v>포인트</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:J12" si="1">IF(_xlfn.RANK.EQ(H5,$H$5:$H$12)&lt;=3,_xlfn.RANK.EQ(H5,$H$5:$H$12)," ")</f>
-        <v>3</v>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="17">
+        <v>260</v>
+      </c>
+      <c r="F5" s="17">
+        <v>6815</v>
+      </c>
+      <c r="G5" s="20">
+        <v>26.21</v>
+      </c>
+      <c r="H5" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" ref="I5:I12" si="0">_xlfn.RANK.EQ(G5,$G$5:$G$12)&amp;"위"</f>
+        <v>2위</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" ref="J5:J12" si="1">IF(AND(G5&gt;=20,H5&gt;=20),"★★","")</f>
+        <v>★★</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42870</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="32">
-        <v>419000</v>
-      </c>
-      <c r="G6" s="32">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="29">
-        <v>22</v>
+      <c r="E6" s="18">
+        <v>230</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3305</v>
+      </c>
+      <c r="G6" s="21">
+        <v>14.36</v>
+      </c>
+      <c r="H6" s="21">
+        <v>28.51</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>방</v>
-      </c>
-      <c r="J6" s="11" t="str">
+        <v>8위</v>
+      </c>
+      <c r="J6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42362</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="32">
-        <v>194000</v>
-      </c>
-      <c r="G7" s="32">
-        <v>87</v>
-      </c>
-      <c r="H7" s="29">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="18">
+        <v>352</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6012</v>
+      </c>
+      <c r="G7" s="21">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="H7" s="21">
+        <v>16.600000000000001</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>거실</v>
-      </c>
-      <c r="J7" s="11" t="str">
+        <v>6위</v>
+      </c>
+      <c r="J7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42523</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="32">
-        <v>43000</v>
-      </c>
-      <c r="G8" s="32">
-        <v>33</v>
-      </c>
-      <c r="H8" s="29">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18">
+        <v>354</v>
+      </c>
+      <c r="F8" s="18">
+        <v>10105</v>
+      </c>
+      <c r="G8" s="21">
+        <v>28.55</v>
+      </c>
+      <c r="H8" s="21">
+        <v>40.57</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>방</v>
-      </c>
-      <c r="J8" s="11" t="str">
+        <v>1위</v>
+      </c>
+      <c r="J8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>★★</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="32">
-        <v>345000</v>
-      </c>
-      <c r="G9" s="32">
-        <v>95</v>
-      </c>
-      <c r="H9" s="29">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="18">
+        <v>468</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10648</v>
+      </c>
+      <c r="G9" s="21">
+        <v>22.75</v>
+      </c>
+      <c r="H9" s="21">
+        <v>26.37</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>거실</v>
-      </c>
-      <c r="J9" s="11">
+        <v>4위</v>
+      </c>
+      <c r="J9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>★★</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3">
-        <v>42994</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="32">
-        <v>37500</v>
-      </c>
-      <c r="G10" s="32">
-        <v>55</v>
-      </c>
-      <c r="H10" s="29">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="18">
+        <v>410</v>
+      </c>
+      <c r="F10" s="18">
+        <v>7337</v>
+      </c>
+      <c r="G10" s="21">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H10" s="21">
+        <v>16.71</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>거실</v>
-      </c>
-      <c r="J10" s="11" t="str">
+        <v>5위</v>
+      </c>
+      <c r="J10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>15</v>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3">
-        <v>42809</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="32">
-        <v>52000</v>
-      </c>
-      <c r="G11" s="32">
-        <v>38</v>
-      </c>
-      <c r="H11" s="29">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18">
+        <v>590</v>
+      </c>
+      <c r="F11" s="18">
+        <v>8915</v>
+      </c>
+      <c r="G11" s="21">
+        <v>15.11</v>
+      </c>
+      <c r="H11" s="21">
+        <v>22.87</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>포인트</v>
-      </c>
-      <c r="J11" s="11" t="str">
+        <v>7위</v>
+      </c>
+      <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14">
-        <v>42309</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="19">
+        <v>300</v>
+      </c>
+      <c r="F12" s="19">
+        <v>7218</v>
+      </c>
+      <c r="G12" s="22">
+        <v>24.06</v>
+      </c>
+      <c r="H12" s="22">
+        <v>25</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3위</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>★★</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="33">
-        <v>50000</v>
-      </c>
-      <c r="G12" s="33">
-        <v>86</v>
-      </c>
-      <c r="H12" s="30">
-        <v>103</v>
-      </c>
-      <c r="I12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>포인트</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="1"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="4">
+        <f>COUNTIF(F5:F12,"&gt;=10000")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="7">
-        <f>DAVERAGE(B4:H12,7,E4:E5)</f>
-        <v>102</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="53"/>
+      <c r="G13" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="23">
+        <f>MAX(모집인원)</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="9">
+        <f>ROUNDUP(DAVERAGE(B4:H12,6,G5:G12),0)</f>
+        <v>21</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="34">
-        <f>MIN(F5:F12)</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13" t="str">
-        <f>COUNTIF(제조국가,"독일")&amp;"개"</f>
-        <v>3개</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="15">
-        <f>VLOOKUP(H14,B5:H12,5,0)</f>
-        <v>56800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="27"/>
+      <c r="I14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10">
+        <f>VLOOKUP(H14,C5:H12,5,0)</f>
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="12:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2761,13 +3468,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$H5&gt;=100</formula>
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>$E5&gt;=400</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>$B$5:$B$12</formula1>
+      <formula1>$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,710 +3485,632 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B18" sqref="B18:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17">
+        <v>260</v>
+      </c>
+      <c r="F3" s="17">
+        <v>6815</v>
+      </c>
+      <c r="G3" s="20">
+        <v>26.21</v>
+      </c>
+      <c r="H3" s="20">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="18">
+        <v>230</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3305</v>
+      </c>
+      <c r="G4" s="21">
+        <v>14.36</v>
+      </c>
+      <c r="H4" s="21">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="18">
+        <v>352</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6012</v>
+      </c>
+      <c r="G5" s="21">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="H5" s="21">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="18">
+        <v>354</v>
+      </c>
+      <c r="F6" s="18">
+        <v>10105</v>
+      </c>
+      <c r="G6" s="21">
+        <v>28.55</v>
+      </c>
+      <c r="H6" s="21">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="18">
+        <v>468</v>
+      </c>
+      <c r="F7" s="18">
+        <v>10648</v>
+      </c>
+      <c r="G7" s="21">
+        <v>22.75</v>
+      </c>
+      <c r="H7" s="21">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18">
+        <v>410</v>
+      </c>
+      <c r="F8" s="18">
+        <v>7337</v>
+      </c>
+      <c r="G8" s="21">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H8" s="21">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18">
+        <v>590</v>
+      </c>
+      <c r="F9" s="18">
+        <v>8915</v>
+      </c>
+      <c r="G9" s="21">
+        <v>15.11</v>
+      </c>
+      <c r="H9" s="21">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="19">
+        <v>300</v>
+      </c>
+      <c r="F10" s="19">
+        <v>7218</v>
+      </c>
+      <c r="G10" s="22">
+        <v>24.06</v>
+      </c>
+      <c r="H10" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6815</v>
+      </c>
+      <c r="E19" s="31">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="28">
+        <v>3305</v>
+      </c>
+      <c r="E20" s="32">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28">
+        <v>10105</v>
+      </c>
+      <c r="E21" s="32">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28">
+        <v>10648</v>
+      </c>
+      <c r="E22" s="32">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="38">
+        <v>7337</v>
+      </c>
+      <c r="E23" s="39">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>$E3&gt;=400</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="41"/>
+      <c r="C3" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="44">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44">
+        <v>20.285</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="44">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="H5" s="44">
+        <v>24.06</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+      <c r="F6" s="44">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="G6" s="44">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44">
+        <v>28.55</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44">
+        <v>22.75</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1</v>
+      </c>
+      <c r="F8" s="44">
+        <v>15.11</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="E9" s="44">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F9" s="44">
+        <v>16.094999999999999</v>
+      </c>
+      <c r="G9" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8">
-        <v>42504</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="31">
-        <v>59500</v>
-      </c>
-      <c r="G3" s="31">
-        <v>64</v>
-      </c>
-      <c r="H3" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42870</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="32">
-        <v>419000</v>
-      </c>
-      <c r="G4" s="32">
-        <v>25</v>
-      </c>
-      <c r="H4" s="29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42362</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="32">
-        <v>194000</v>
-      </c>
-      <c r="G5" s="32">
-        <v>87</v>
-      </c>
-      <c r="H5" s="29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42523</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="32">
-        <v>43000</v>
-      </c>
-      <c r="G6" s="32">
-        <v>33</v>
-      </c>
-      <c r="H6" s="29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="32">
-        <v>345000</v>
-      </c>
-      <c r="G7" s="32">
-        <v>95</v>
-      </c>
-      <c r="H7" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42994</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="32">
-        <v>37500</v>
-      </c>
-      <c r="G8" s="32">
-        <v>55</v>
-      </c>
-      <c r="H8" s="29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42809</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="32">
-        <v>52000</v>
-      </c>
-      <c r="G9" s="32">
-        <v>38</v>
-      </c>
-      <c r="H9" s="29">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5">
-        <v>42309</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="36">
-        <v>50000</v>
-      </c>
-      <c r="G10" s="36">
-        <v>86</v>
-      </c>
-      <c r="H10" s="37">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40">
-        <f>AVERAGE(F3:F10)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="32">
-        <v>419000</v>
-      </c>
-      <c r="E19" s="29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="32">
-        <v>43000</v>
-      </c>
-      <c r="E20" s="29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="32">
-        <v>37500</v>
-      </c>
-      <c r="E21" s="29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="H9" s="44">
+        <v>25.12</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:G11"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$H3&gt;=100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8">
-        <v>42504</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="31">
-        <v>56800</v>
-      </c>
-      <c r="G3" s="31">
-        <v>64</v>
-      </c>
-      <c r="H3" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42362</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="32">
-        <v>194000</v>
-      </c>
-      <c r="G4" s="32">
-        <v>87</v>
-      </c>
-      <c r="H4" s="29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42671</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="32">
-        <v>345000</v>
-      </c>
-      <c r="G5" s="32">
-        <v>95</v>
-      </c>
-      <c r="H5" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="29">
-        <f>SUBTOTAL(1,H3:H5)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="2">
-        <f>SUBTOTAL(3,C3:C5)</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42523</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="32">
-        <v>43000</v>
-      </c>
-      <c r="G8" s="32">
-        <v>33</v>
-      </c>
-      <c r="H8" s="29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42994</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="32">
-        <v>37500</v>
-      </c>
-      <c r="G9" s="32">
-        <v>55</v>
-      </c>
-      <c r="H9" s="29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="29">
-        <f>SUBTOTAL(1,H8:H9)</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="2">
-        <f>SUBTOTAL(3,C8:C9)</f>
-        <v>2</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42870</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="32">
-        <v>419000</v>
-      </c>
-      <c r="G12" s="32">
-        <v>25</v>
-      </c>
-      <c r="H12" s="29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42809</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="32">
-        <v>52000</v>
-      </c>
-      <c r="G13" s="32">
-        <v>38</v>
-      </c>
-      <c r="H13" s="29">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14">
-        <v>42309</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="33">
-        <v>50000</v>
-      </c>
-      <c r="G14" s="33">
-        <v>86</v>
-      </c>
-      <c r="H14" s="30">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45">
-        <f>SUBTOTAL(1,H12:H14)</f>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43">
-        <f>SUBTOTAL(3,C12:C14)</f>
-        <v>3</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45">
-        <f>SUBTOTAL(1,H3:H14)</f>
-        <v>69.125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43">
-        <f>SUBTOTAL(3,C3:C14)</f>
-        <v>8</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-    </row>
-  </sheetData>
-  <sortState ref="B3:H10">
-    <sortCondition descending="1" ref="E3:E10"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:H18">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$H3&gt;=100</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/11214-박준혁.xlsx
+++ b/11214-박준혁.xlsx
@@ -5,29 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
-    <sheet name="제4작업" sheetId="5" r:id="rId4"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="모집인원">제1작업!$E$5:$E$12</definedName>
+    <definedName name="대여가격">제1작업!$H$5:$H$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,191 +36,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
-  <si>
-    <t>대학코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대학명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전형명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년
-경쟁률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년
-경쟁률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J-241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H-514</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-197</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K-318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z-167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y-845</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중희대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수일여대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서인대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세호대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성일대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건영대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진영대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학업우수자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학업우수자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특기자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반전형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반전형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 모집인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대학명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학업우수자 2022년 경쟁률의 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한진대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원자가 10,000명 이상인 대학의 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중희대</t>
-  </si>
-  <si>
-    <t>학업우수자</t>
-  </si>
-  <si>
-    <t>학업우수자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반전형</t>
-  </si>
-  <si>
-    <t>특기자</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+  <si>
+    <t>대여코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-215</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-214</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J-321</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-346</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접이식 원목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가스페이스 팝업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 원형 사각 폴딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트캠프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노지캠핑 접이식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>들른 캠퍼 패밀리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄 오토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 2층 이단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행캠프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버팔루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠캠프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연친화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼미거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족캠프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토마운틴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원터치텐트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원터치텐트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가격
+(단위:원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다 대여 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여가격
+(단위:원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 제품의 대여 수량 합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여 수량</t>
+  </si>
+  <si>
+    <t>대여 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라솔 제품의 대여가격(단위:원) 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접이식 원목</t>
+  </si>
+  <si>
+    <t>대여 순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원터치텐트</t>
+  </si>
+  <si>
+    <t>&gt;=20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+  </si>
+  <si>
+    <t>파라솔</t>
   </si>
   <si>
     <t>총합계</t>
   </si>
   <si>
-    <t>개수 : 대학명</t>
-  </si>
-  <si>
-    <t>전형명</t>
-  </si>
-  <si>
-    <t>모집인원</t>
-  </si>
-  <si>
-    <t>201-300</t>
-  </si>
-  <si>
-    <t>301-400</t>
-  </si>
-  <si>
-    <t>401-500</t>
-  </si>
-  <si>
-    <t>501-600</t>
-  </si>
-  <si>
-    <t>평균 : 2022년 경쟁률</t>
+    <t>개수 : 제품명</t>
+  </si>
+  <si>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>1-600</t>
+  </si>
+  <si>
+    <t>601-1200</t>
+  </si>
+  <si>
+    <t>1201-1800</t>
+  </si>
+  <si>
+    <t>1801-2400</t>
+  </si>
+  <si>
+    <t>평균 : 대여가격(단위:원)</t>
   </si>
   <si>
     <t>**</t>
@@ -231,10 +262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0&quot;명&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;개&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -246,18 +276,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -274,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -476,93 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -681,125 +624,125 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -812,52 +755,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
@@ -892,13 +820,41 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#,##0&quot;개&quot;"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -931,13 +887,7 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="#,##0&quot;명&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -972,12 +922,6 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1012,12 +956,6 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1032,6 +970,20 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1051,45 +1003,18 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <color rgb="FF0070C0"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1153,15 +1078,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
-              <a:t>학업우수자 및 일반전형 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
-              <a:t>2022</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
-              <a:t>년 경쟁률</a:t>
+              <a:t>원터치텐트 및 테이블 대여 현황</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
           </a:p>
@@ -1203,20 +1120,38 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0625866541419428E-2"/>
+          <c:y val="9.4279841636239189E-2"/>
+          <c:w val="0.84605550184695621"/>
+          <c:h val="0.79717153076144864"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>2022년 경쟁률</c:v>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>대여 수량</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1224,123 +1159,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$10,제1작업!$C$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>중희대</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>한진대</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>서인대</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>세호대</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>성일대</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>진영대</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8:$G$10,제1작업!$G$12)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>26.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2E5-48E6-9A6B-3E1AD6650727}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:axId val="1045129999"/>
-        <c:axId val="1045130831"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>모집인원</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:layout/>
-              <c:dLblPos val="r"/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1352,7 +1175,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-A2E5-48E6-9A6B-3E1AD6650727}"/>
+                  <c16:uniqueId val="{00000005-B260-4051-8748-08EAB22494ED}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1413,53 +1236,157 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$10,제1작업!$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$11)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>중희대</c:v>
+                  <c:v>접이식 원목</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>한진대</c:v>
+                  <c:v>메가스페이스 팝업</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>서인대</c:v>
+                  <c:v>들른 캠퍼 패밀리</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>세호대</c:v>
+                  <c:v>패스트캠프</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>성일대</c:v>
+                  <c:v>노지캠핑 접이식</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>진영대</c:v>
+                  <c:v>프리미엄 오토</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$E$5:$E$6,제1작업!$E$8:$E$10,제1작업!$E$12)</c:f>
+              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$8:$G$11)</c:f>
               <c:numCache>
-                <c:formatCode>#,##0"명"</c:formatCode>
+                <c:formatCode>#,##0"개"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>260</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>354</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410</c:v>
+                  <c:v>1821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>1678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B260-4051-8748-08EAB22494ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1422130080"/>
+        <c:axId val="1422136320"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>대여가격(단위:원)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$8:$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>접이식 원목</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>메가스페이스 팝업</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>들른 캠퍼 패밀리</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>패스트캠프</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>노지캠핑 접이식</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>프리미엄 오토</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$H$5:$H$6,제1작업!$H$8:$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,7 +1394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2E5-48E6-9A6B-3E1AD6650727}"/>
+              <c16:uniqueId val="{00000001-B260-4051-8748-08EAB22494ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1481,11 +1408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1131565503"/>
-        <c:axId val="1131564671"/>
+        <c:axId val="1496217408"/>
+        <c:axId val="1352052640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1045129999"/>
+        <c:axId val="1422130080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1455,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045130831"/>
+        <c:crossAx val="1422136320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1536,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045130831"/>
+        <c:axId val="1422136320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1481,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0&quot;개&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1585,18 +1512,19 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045129999"/>
+        <c:crossAx val="1422130080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="400"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1131564671"/>
+        <c:axId val="1352052640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0&quot;명&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1627,13 +1555,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1131565503"/>
+        <c:crossAx val="1496217408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="10000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1131565503"/>
+        <c:axId val="1496217408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1131564671"/>
+        <c:crossAx val="1352052640"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2287,27 +2215,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>82827</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>281610</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>223631</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="한쪽 모서리가 잘린 사각형 1"/>
+        <xdr:cNvPr id="2" name="사다리꼴 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209549" y="66675"/>
-          <a:ext cx="4371975" cy="723900"/>
+          <a:off x="207066" y="74544"/>
+          <a:ext cx="4646544" cy="728870"/>
         </a:xfrm>
-        <a:prstGeom prst="snip1Rect">
+        <a:prstGeom prst="trapezoid">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -2338,29 +2266,19 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>2020</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>학년도 대학 수시 경쟁률</a:t>
+            <a:t>캠핑용품 대여 관리 현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2369,16 +2287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>115958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:rowOff>241439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2402,8 +2320,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4752975" y="76200"/>
-          <a:ext cx="2438400" cy="762000"/>
+          <a:off x="5035826" y="115958"/>
+          <a:ext cx="2494307" cy="705264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2456,12 +2374,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66527</cdr:x>
-      <cdr:y>0.11168</cdr:y>
+      <cdr:x>0.48322</cdr:x>
+      <cdr:y>0.13607</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.80621</cdr:x>
-      <cdr:y>0.16431</cdr:y>
+      <cdr:x>0.60654</cdr:x>
+      <cdr:y>0.18742</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2470,13 +2388,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6191250" y="679242"/>
-          <a:ext cx="1311640" cy="320102"/>
+          <a:off x="4497050" y="827581"/>
+          <a:ext cx="1147685" cy="312296"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -68452"/>
-            <a:gd name="adj2" fmla="val 26626"/>
+            <a:gd name="adj1" fmla="val 96175"/>
+            <a:gd name="adj2" fmla="val -18777"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2508,16 +2426,16 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>최대인원</a:t>
+            <a:t>인기상품</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
@@ -2530,55 +2448,55 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45057.738773495374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45057.717051157408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
   <cacheFields count="7">
-    <cacheField name="대학코드" numFmtId="0">
+    <cacheField name="대여코드" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="대학명" numFmtId="0">
+    <cacheField name="제품명" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="전형명" numFmtId="0">
+    <cacheField name="제조사" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="분류" numFmtId="0">
       <sharedItems count="3">
-        <s v="학업우수자"/>
-        <s v="특기자"/>
-        <s v="일반전형"/>
+        <s v="테이블"/>
+        <s v="원터치텐트"/>
+        <s v="파라솔"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="모집인원" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="230" maxValue="590" count="8">
-        <n v="260"/>
-        <n v="230"/>
-        <n v="352"/>
-        <n v="354"/>
-        <n v="468"/>
-        <n v="410"/>
-        <n v="590"/>
-        <n v="300"/>
+    <cacheField name="판매가격_x000a_(단위:원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30540" maxValue="108900"/>
+    </cacheField>
+    <cacheField name="대여 수량" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="289" maxValue="2312" count="8">
+        <n v="850"/>
+        <n v="346"/>
+        <n v="1020"/>
+        <n v="1342"/>
+        <n v="289"/>
+        <n v="1821"/>
+        <n v="1678"/>
+        <n v="2312"/>
       </sharedItems>
-      <fieldGroup base="3">
-        <rangePr autoStart="0" autoEnd="0" startNum="201" endNum="600" groupInterval="100"/>
+      <fieldGroup base="5">
+        <rangePr autoStart="0" autoEnd="0" startNum="1" endNum="2400" groupInterval="600"/>
         <groupItems count="6">
-          <s v="&lt;201"/>
-          <s v="201-300"/>
-          <s v="301-400"/>
-          <s v="401-500"/>
-          <s v="501-600"/>
-          <s v="&gt;601"/>
+          <s v="&lt;1"/>
+          <s v="1-600"/>
+          <s v="601-1200"/>
+          <s v="1201-1800"/>
+          <s v="1801-2400"/>
+          <s v="&gt;2401"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="지원자" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3305" maxValue="10648"/>
-    </cacheField>
-    <cacheField name="2022년_x000a_경쟁률" numFmtId="43">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.36" maxValue="28.55"/>
-    </cacheField>
-    <cacheField name="2021년_x000a_경쟁률" numFmtId="43">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.600000000000001" maxValue="40.57"/>
+    <cacheField name="대여가격_x000a_(단위:원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="36000"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2592,94 +2510,96 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <s v="J-241"/>
-    <s v="중희대"/>
+    <s v="T-127"/>
+    <s v="접이식 원목"/>
+    <s v="아이랑"/>
     <x v="0"/>
+    <n v="49000"/>
     <x v="0"/>
-    <n v="6815"/>
-    <n v="26.21"/>
-    <n v="23.95"/>
+    <n v="16500"/>
   </r>
   <r>
-    <s v="H-514"/>
-    <s v="한진대"/>
-    <x v="0"/>
+    <s v="M-215"/>
+    <s v="메가스페이스 팝업"/>
+    <s v="여행캠프"/>
     <x v="1"/>
-    <n v="3305"/>
-    <n v="14.36"/>
-    <n v="28.51"/>
+    <n v="108900"/>
+    <x v="1"/>
+    <n v="36000"/>
   </r>
   <r>
-    <s v="A-248"/>
-    <s v="수일여대"/>
-    <x v="1"/>
+    <s v="D-214"/>
+    <s v="대형 원형 사각 폴딩"/>
+    <s v="버팔루"/>
     <x v="2"/>
-    <n v="6012"/>
-    <n v="17.079999999999998"/>
-    <n v="16.600000000000001"/>
+    <n v="75500"/>
+    <x v="2"/>
+    <n v="25000"/>
   </r>
   <r>
-    <s v="S-197"/>
-    <s v="서인대"/>
-    <x v="2"/>
+    <s v="J-321"/>
+    <s v="들른 캠퍼 패밀리"/>
+    <s v="엠캠프"/>
+    <x v="0"/>
+    <n v="63900"/>
     <x v="3"/>
-    <n v="10105"/>
-    <n v="28.55"/>
-    <n v="40.57"/>
+    <n v="21000"/>
   </r>
   <r>
-    <s v="C-164"/>
-    <s v="세호대"/>
-    <x v="2"/>
+    <s v="P-346"/>
+    <s v="패스트캠프"/>
+    <s v="자연친화"/>
+    <x v="1"/>
+    <n v="99900"/>
     <x v="4"/>
-    <n v="10648"/>
-    <n v="22.75"/>
-    <n v="26.37"/>
+    <n v="33000"/>
   </r>
   <r>
-    <s v="K-318"/>
-    <s v="성일대"/>
+    <s v="C-121"/>
+    <s v="노지캠핑 접이식"/>
+    <s v="퍼미거"/>
     <x v="0"/>
+    <n v="43540"/>
     <x v="5"/>
-    <n v="7337"/>
-    <n v="17.899999999999999"/>
-    <n v="16.71"/>
+    <n v="14500"/>
   </r>
   <r>
-    <s v="Y-845"/>
-    <s v="건영대"/>
+    <s v="P-145"/>
+    <s v="프리미엄 오토"/>
+    <s v="가족캠프"/>
     <x v="1"/>
+    <n v="38900"/>
     <x v="6"/>
-    <n v="8915"/>
-    <n v="15.11"/>
-    <n v="22.87"/>
+    <n v="12500"/>
   </r>
   <r>
-    <s v="Z-167"/>
-    <s v="진영대"/>
+    <s v="D-362"/>
+    <s v="대형 2층 이단"/>
+    <s v="오토마운틴"/>
     <x v="2"/>
+    <n v="30540"/>
     <x v="7"/>
-    <n v="7218"/>
-    <n v="24.06"/>
-    <n v="25"/>
+    <n v="10000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="모집인원" colHeaderCaption="전형명">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="대여 수량" colHeaderCaption="분류">
   <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="4">
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField numFmtId="41" showAll="0"/>
     <pivotField axis="axisRow" numFmtId="176" showAll="0">
       <items count="7">
         <item x="0"/>
@@ -2691,12 +2611,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="176" showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="5"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -2716,7 +2634,7 @@
     </i>
   </rowItems>
   <colFields count="2">
-    <field x="2"/>
+    <field x="3"/>
     <field x="-2"/>
   </colFields>
   <colItems count="6">
@@ -2743,8 +2661,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 대학명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 2022년 경쟁률" fld="5" subtotal="average" baseField="3" baseItem="1"/>
+    <dataField name="개수 : 제품명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 대여가격(단위:원)" fld="6" subtotal="average" baseField="5" baseItem="1"/>
   </dataFields>
   <formats count="6">
     <format dxfId="5">
@@ -2754,11 +2672,12 @@
             <x v="0"/>
             <x v="1"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
+          <reference field="3" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
           </reference>
-          <reference field="3" count="1">
-            <x v="4"/>
+          <reference field="5" count="1">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2770,50 +2689,52 @@
             <x v="0"/>
             <x v="1"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
           </reference>
-          <reference field="3" count="1">
-            <x v="1"/>
+          <reference field="5" count="1">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1">
-            <x v="3"/>
+          <reference field="5" count="1">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1">
+          <reference field="3" count="1" selected="0">
             <x v="2"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
-          <reference field="3" count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1">
             <x v="4"/>
           </reference>
         </references>
@@ -2833,13 +2754,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <autoFilter ref="B18:E23"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="대학명" dataDxfId="9"/>
-    <tableColumn id="2" name="전형명" dataDxfId="8"/>
-    <tableColumn id="3" name="지원자" dataDxfId="7"/>
-    <tableColumn id="4" name="2022년_x000a_경쟁률" dataDxfId="6"/>
+    <tableColumn id="1" name="제품명" dataDxfId="10"/>
+    <tableColumn id="2" name="제조사" dataDxfId="9"/>
+    <tableColumn id="3" name="판매가격_x000a_(단위:원)" dataDxfId="8"/>
+    <tableColumn id="4" name="대여 수량" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3108,356 +3029,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    <row r="1" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26">
+        <v>49000</v>
+      </c>
+      <c r="G5" s="23">
+        <v>850</v>
+      </c>
+      <c r="H5" s="26">
+        <v>16500</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f t="shared" ref="I5:I12" si="0">CHOOSE(MID(B5,3,1),"서울","인천","부산")</f>
+        <v>서울</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f t="shared" ref="J5:J12" si="1">_xlfn.RANK.EQ(G5,$G$5:$G$12)&amp;"위"</f>
+        <v>6위</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="27">
+        <v>108900</v>
+      </c>
+      <c r="G6" s="24">
+        <v>346</v>
+      </c>
+      <c r="H6" s="27">
+        <v>36000</v>
+      </c>
+      <c r="I6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>인천</v>
+      </c>
+      <c r="J6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>7위</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="27">
+        <v>75500</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1020</v>
+      </c>
+      <c r="H7" s="27">
+        <v>25000</v>
+      </c>
+      <c r="I7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>인천</v>
+      </c>
+      <c r="J7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>5위</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="27">
+        <v>63900</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1342</v>
+      </c>
+      <c r="H8" s="27">
+        <v>21000</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>부산</v>
+      </c>
+      <c r="J8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>4위</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="27">
+        <v>99900</v>
+      </c>
+      <c r="G9" s="24">
+        <v>289</v>
+      </c>
+      <c r="H9" s="27">
+        <v>33000</v>
+      </c>
+      <c r="I9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>부산</v>
+      </c>
+      <c r="J9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>8위</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="27">
+        <v>43540</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1821</v>
+      </c>
+      <c r="H10" s="27">
+        <v>14500</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>서울</v>
+      </c>
+      <c r="J10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>2위</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="C11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="27">
+        <v>38900</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1678</v>
+      </c>
+      <c r="H11" s="27">
+        <v>12500</v>
+      </c>
+      <c r="I11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>서울</v>
+      </c>
+      <c r="J11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>3위</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="C12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="28">
+        <v>30540</v>
+      </c>
+      <c r="G12" s="25">
+        <v>2312</v>
+      </c>
+      <c r="H12" s="28">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>부산</v>
+      </c>
+      <c r="J12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1위</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="17">
-        <v>260</v>
-      </c>
-      <c r="F5" s="17">
-        <v>6815</v>
-      </c>
-      <c r="G5" s="20">
-        <v>26.21</v>
-      </c>
-      <c r="H5" s="20">
-        <v>23.95</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" ref="I5:I12" si="0">_xlfn.RANK.EQ(G5,$G$5:$G$12)&amp;"위"</f>
-        <v>2위</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J12" si="1">IF(AND(G5&gt;=20,H5&gt;=20),"★★","")</f>
-        <v>★★</v>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="48">
+        <f>DSUM(B4:H12,6,E4:E5)</f>
+        <v>4013</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="50">
+        <f>LARGE(G5:G12,1)</f>
+        <v>2312</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="18">
-        <v>230</v>
-      </c>
-      <c r="F6" s="18">
-        <v>3305</v>
-      </c>
-      <c r="G6" s="21">
-        <v>14.36</v>
-      </c>
-      <c r="H6" s="21">
-        <v>28.51</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>8위</v>
-      </c>
-      <c r="J6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="14" spans="2:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="49">
+        <f>SUMIF(E5:E12,"파라솔",대여가격)/COUNTIF(E5:E12,"파라솔")</f>
+        <v>17500</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="51">
+        <f>VLOOKUP(H14,C5:H12,6,0)</f>
+        <v>16500</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="18">
-        <v>352</v>
-      </c>
-      <c r="F7" s="18">
-        <v>6012</v>
-      </c>
-      <c r="G7" s="21">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="H7" s="21">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>6위</v>
-      </c>
-      <c r="J7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="29"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="18">
-        <v>354</v>
-      </c>
-      <c r="F8" s="18">
-        <v>10105</v>
-      </c>
-      <c r="G8" s="21">
-        <v>28.55</v>
-      </c>
-      <c r="H8" s="21">
-        <v>40.57</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1위</v>
-      </c>
-      <c r="J8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>★★</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18">
-        <v>468</v>
-      </c>
-      <c r="F9" s="18">
-        <v>10648</v>
-      </c>
-      <c r="G9" s="21">
-        <v>22.75</v>
-      </c>
-      <c r="H9" s="21">
-        <v>26.37</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>4위</v>
-      </c>
-      <c r="J9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>★★</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="18">
-        <v>410</v>
-      </c>
-      <c r="F10" s="18">
-        <v>7337</v>
-      </c>
-      <c r="G10" s="21">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H10" s="21">
-        <v>16.71</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>5위</v>
-      </c>
-      <c r="J10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="18">
-        <v>590</v>
-      </c>
-      <c r="F11" s="18">
-        <v>8915</v>
-      </c>
-      <c r="G11" s="21">
-        <v>15.11</v>
-      </c>
-      <c r="H11" s="21">
-        <v>22.87</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>7위</v>
-      </c>
-      <c r="J11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="19">
-        <v>300</v>
-      </c>
-      <c r="F12" s="19">
-        <v>7218</v>
-      </c>
-      <c r="G12" s="22">
-        <v>24.06</v>
-      </c>
-      <c r="H12" s="22">
-        <v>25</v>
-      </c>
-      <c r="I12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>3위</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>★★</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="4">
-        <f>COUNTIF(F5:F12,"&gt;=10000")</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="23">
-        <f>MAX(모집인원)</f>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="9">
-        <f>ROUNDUP(DAVERAGE(B4:H12,6,G5:G12),0)</f>
-        <v>21</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="10">
-        <f>VLOOKUP(H14,C5:H12,5,0)</f>
-        <v>26.21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="12:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="24"/>
+    <row r="17" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3466,10 +3389,10 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="F13:F14"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>$E5&gt;=400</formula>
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>$H5&gt;=30000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3488,336 +3411,336 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="17">
-        <v>260</v>
-      </c>
-      <c r="F3" s="17">
-        <v>6815</v>
-      </c>
-      <c r="G3" s="20">
-        <v>26.21</v>
-      </c>
-      <c r="H3" s="20">
-        <v>23.95</v>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="26">
+        <v>49000</v>
+      </c>
+      <c r="G3" s="23">
+        <v>850</v>
+      </c>
+      <c r="H3" s="26">
+        <v>16500</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="18">
-        <v>230</v>
-      </c>
-      <c r="F4" s="18">
-        <v>3305</v>
-      </c>
-      <c r="G4" s="21">
-        <v>14.36</v>
-      </c>
-      <c r="H4" s="21">
-        <v>28.51</v>
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="27">
+        <v>108900</v>
+      </c>
+      <c r="G4" s="24">
+        <v>346</v>
+      </c>
+      <c r="H4" s="27">
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="18">
-        <v>352</v>
-      </c>
-      <c r="F5" s="18">
-        <v>6012</v>
-      </c>
-      <c r="G5" s="21">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="H5" s="21">
-        <v>16.600000000000001</v>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="27">
+        <v>75500</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1020</v>
+      </c>
+      <c r="H5" s="27">
+        <v>25000</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="18">
-        <v>354</v>
-      </c>
-      <c r="F6" s="18">
-        <v>10105</v>
-      </c>
-      <c r="G6" s="21">
-        <v>28.55</v>
-      </c>
-      <c r="H6" s="21">
-        <v>40.57</v>
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="27">
+        <v>63900</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1342</v>
+      </c>
+      <c r="H6" s="27">
+        <v>21000</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="18">
-        <v>468</v>
-      </c>
-      <c r="F7" s="18">
-        <v>10648</v>
-      </c>
-      <c r="G7" s="21">
-        <v>22.75</v>
-      </c>
-      <c r="H7" s="21">
-        <v>26.37</v>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27">
+        <v>99900</v>
+      </c>
+      <c r="G7" s="24">
+        <v>289</v>
+      </c>
+      <c r="H7" s="27">
+        <v>33000</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="18">
-        <v>410</v>
-      </c>
-      <c r="F8" s="18">
-        <v>7337</v>
-      </c>
-      <c r="G8" s="21">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H8" s="21">
-        <v>16.71</v>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="27">
+        <v>43540</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1821</v>
+      </c>
+      <c r="H8" s="27">
+        <v>14500</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="18">
-        <v>590</v>
-      </c>
-      <c r="F9" s="18">
-        <v>8915</v>
-      </c>
-      <c r="G9" s="21">
-        <v>15.11</v>
-      </c>
-      <c r="H9" s="21">
-        <v>22.87</v>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="27">
+        <v>38900</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1678</v>
+      </c>
+      <c r="H9" s="27">
+        <v>12500</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19">
-        <v>300</v>
-      </c>
-      <c r="F10" s="19">
-        <v>7218</v>
-      </c>
-      <c r="G10" s="22">
-        <v>24.06</v>
-      </c>
-      <c r="H10" s="22">
-        <v>25</v>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="28">
+        <v>30540</v>
+      </c>
+      <c r="G10" s="25">
+        <v>2312</v>
+      </c>
+      <c r="H10" s="28">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>4</v>
+    <row r="14" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>2</v>
+      <c r="B18" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="26">
-        <v>6815</v>
+      <c r="B19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="27">
+        <v>108900</v>
       </c>
       <c r="E19" s="31">
-        <v>26.21</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="28">
-        <v>3305</v>
-      </c>
-      <c r="E20" s="32">
-        <v>14.36</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="27">
+        <v>75500</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1020</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="28">
-        <v>10105</v>
-      </c>
-      <c r="E21" s="32">
-        <v>28.55</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="27">
+        <v>63900</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1342</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="28">
-        <v>10648</v>
-      </c>
-      <c r="E22" s="32">
-        <v>22.75</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="27">
+        <v>99900</v>
+      </c>
+      <c r="E22" s="31">
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="38">
-        <v>7337</v>
+        <v>38900</v>
       </c>
       <c r="E23" s="39">
-        <v>17.899999999999999</v>
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$E3&gt;=400</formula>
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>$H3&gt;=30000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3829,280 +3752,192 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
-      <c r="I2"/>
-      <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="41"/>
-      <c r="C3" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="C3" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="44">
+        <v>52</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="47">
         <v>2</v>
       </c>
-      <c r="D5" s="44">
-        <v>20.285</v>
-      </c>
-      <c r="E5" s="45" t="s">
+      <c r="H5" s="47">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
+        <v>25000</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
+        <v>16500</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47">
+        <v>21000</v>
+      </c>
+      <c r="G7" s="47">
+        <v>1</v>
+      </c>
+      <c r="H7" s="47">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="47">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="47">
+        <v>1</v>
+      </c>
+      <c r="F8" s="47">
+        <v>14500</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="44">
-        <v>1</v>
-      </c>
-      <c r="H5" s="44">
-        <v>24.06</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="44">
-        <v>1</v>
-      </c>
-      <c r="F6" s="44">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="G6" s="44">
-        <v>1</v>
-      </c>
-      <c r="H6" s="44">
-        <v>28.55</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="44">
-        <v>1</v>
-      </c>
-      <c r="D7" s="44">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="44">
-        <v>1</v>
-      </c>
-      <c r="H7" s="44">
-        <v>22.75</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="44">
-        <v>1</v>
-      </c>
-      <c r="F8" s="44">
-        <v>15.11</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="44">
+      <c r="C9" s="47">
+        <v>2</v>
+      </c>
+      <c r="D9" s="47">
+        <v>17500</v>
+      </c>
+      <c r="E9" s="47">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="E9" s="44">
-        <v>2</v>
-      </c>
-      <c r="F9" s="44">
-        <v>16.094999999999999</v>
-      </c>
-      <c r="G9" s="44">
+      <c r="F9" s="47">
+        <v>17333.333333333332</v>
+      </c>
+      <c r="G9" s="47">
         <v>3</v>
       </c>
-      <c r="H9" s="44">
-        <v>25.12</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="H9" s="47">
+        <v>27166.666666666668</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4110,7 +3945,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>